--- a/FORMACIONES/PROGRAMACION DE SOFTWARE/PROGRAMACION DE EVENTOS/Planeación Pedagógica - PROGRAMACION DE SOFTWARE.xlsx
+++ b/FORMACIONES/PROGRAMACION DE SOFTWARE/PROGRAMACION DE EVENTOS/Planeación Pedagógica - PROGRAMACION DE SOFTWARE.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_856A6BE78539555C20DEEA8C81315C111EE30415" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{205AC2BD-988B-4671-A89A-98EFE00F90C6}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SharkCoder\Desktop\SENATIC\FORMACIONES\PROGRAMACION DE SOFTWARE\PROGRAMACION DE EVENTOS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03342A29-030E-4035-9871-DAFDD01EDA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,6 +33,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="vXJ+xigosD5hWtRNUDZWi3e9E3sEIJf+7NIbKKyySeQ="/>
@@ -1767,7 +1775,7 @@
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1826,6 +1834,18 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFDBE9F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -2123,7 +2143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2184,15 +2204,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2208,32 +2222,17 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2529,47 +2528,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2577,6 +2572,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2588,39 +2585,104 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2877,185 +2939,187 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="40.7109375" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="50.25" customHeight="1">
-      <c r="A1" s="157"/>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="137" t="s">
+      <c r="A1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="136"/>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="136"/>
-      <c r="AB1" s="136"/>
-      <c r="AC1" s="136"/>
-      <c r="AD1" s="136"/>
-      <c r="AE1" s="136"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="136"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
     </row>
     <row r="2" spans="1:33" ht="50.25" customHeight="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="138" t="s">
+      <c r="A2" s="146"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="136"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="129"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="129"/>
+      <c r="AF2" s="129"/>
+      <c r="AG2" s="129"/>
     </row>
     <row r="3" spans="1:33" ht="50.25" customHeight="1">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="129"/>
     </row>
     <row r="4" spans="1:33" ht="50.25" customHeight="1">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
-      <c r="AG4" s="136"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="129"/>
     </row>
     <row r="5" spans="1:33" ht="39.75" customHeight="1">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="167" t="s">
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="146"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="151"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -3065,36 +3129,36 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="136"/>
-      <c r="AA5" s="136"/>
-      <c r="AB5" s="136"/>
-      <c r="AC5" s="136"/>
-      <c r="AD5" s="136"/>
-      <c r="AE5" s="136"/>
-      <c r="AF5" s="136"/>
-      <c r="AG5" s="136"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="129"/>
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="129"/>
     </row>
     <row r="6" spans="1:33" ht="39.75" customHeight="1">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="149" t="s">
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
-      <c r="P6" s="146"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="151"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -3104,36 +3168,36 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="136"/>
-      <c r="AA6" s="136"/>
-      <c r="AB6" s="136"/>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="136"/>
-      <c r="AF6" s="136"/>
-      <c r="AG6" s="136"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
     </row>
     <row r="7" spans="1:33" ht="39.75" customHeight="1">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="145" t="s">
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="146"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="151"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -3143,36 +3207,36 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="136"/>
-      <c r="AA7" s="136"/>
-      <c r="AB7" s="136"/>
-      <c r="AC7" s="136"/>
-      <c r="AD7" s="136"/>
-      <c r="AE7" s="136"/>
-      <c r="AF7" s="136"/>
-      <c r="AG7" s="136"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="129"/>
+      <c r="AB7" s="129"/>
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="129"/>
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="129"/>
+      <c r="AG7" s="129"/>
     </row>
     <row r="8" spans="1:33" ht="39.75" customHeight="1">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="143"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="147" t="s">
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="143"/>
-      <c r="P8" s="146"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="151"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -3182,36 +3246,36 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="136"/>
-      <c r="AA8" s="136"/>
-      <c r="AB8" s="136"/>
-      <c r="AC8" s="136"/>
-      <c r="AD8" s="136"/>
-      <c r="AE8" s="136"/>
-      <c r="AF8" s="136"/>
-      <c r="AG8" s="136"/>
+      <c r="Z8" s="129"/>
+      <c r="AA8" s="129"/>
+      <c r="AB8" s="129"/>
+      <c r="AC8" s="129"/>
+      <c r="AD8" s="129"/>
+      <c r="AE8" s="129"/>
+      <c r="AF8" s="129"/>
+      <c r="AG8" s="129"/>
     </row>
     <row r="9" spans="1:33" ht="39.75" customHeight="1">
-      <c r="A9" s="148" t="s">
+      <c r="A9" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="147" t="s">
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="143"/>
-      <c r="O9" s="143"/>
-      <c r="P9" s="146"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="151"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -3221,36 +3285,36 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="136"/>
-      <c r="AA9" s="136"/>
-      <c r="AB9" s="136"/>
-      <c r="AC9" s="136"/>
-      <c r="AD9" s="136"/>
-      <c r="AE9" s="136"/>
-      <c r="AF9" s="136"/>
-      <c r="AG9" s="136"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="129"/>
+      <c r="AB9" s="129"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="129"/>
+      <c r="AG9" s="129"/>
     </row>
     <row r="10" spans="1:33" ht="39.75" customHeight="1">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="145">
+      <c r="B10" s="150"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="169">
         <v>3186426</v>
       </c>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="146"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="151"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -3260,38 +3324,38 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="136"/>
-      <c r="AA10" s="136"/>
-      <c r="AB10" s="136"/>
-      <c r="AC10" s="136"/>
-      <c r="AD10" s="136"/>
-      <c r="AE10" s="136"/>
-      <c r="AF10" s="136"/>
-      <c r="AG10" s="136"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="129"/>
+      <c r="AB10" s="129"/>
+      <c r="AC10" s="129"/>
+      <c r="AD10" s="129"/>
+      <c r="AE10" s="129"/>
+      <c r="AF10" s="129"/>
+      <c r="AG10" s="129"/>
     </row>
     <row r="11" spans="1:33" ht="39.75" customHeight="1">
-      <c r="A11" s="151" t="s">
+      <c r="A11" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="155" t="s">
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="156" t="s">
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="143"/>
-      <c r="P11" s="146"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="151"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -3301,36 +3365,36 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="136"/>
-      <c r="AA11" s="136"/>
-      <c r="AB11" s="136"/>
-      <c r="AC11" s="136"/>
-      <c r="AD11" s="136"/>
-      <c r="AE11" s="136"/>
-      <c r="AF11" s="136"/>
-      <c r="AG11" s="136"/>
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="129"/>
+      <c r="AB11" s="129"/>
+      <c r="AC11" s="129"/>
+      <c r="AD11" s="129"/>
+      <c r="AE11" s="129"/>
+      <c r="AF11" s="129"/>
+      <c r="AG11" s="129"/>
     </row>
     <row r="12" spans="1:33" ht="39.75" customHeight="1">
-      <c r="A12" s="153"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="156" t="s">
+      <c r="A12" s="162"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="156" t="s">
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="143"/>
-      <c r="P12" s="146"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="151"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -3340,14 +3404,14 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="136"/>
-      <c r="AA12" s="136"/>
-      <c r="AB12" s="136"/>
-      <c r="AC12" s="136"/>
-      <c r="AD12" s="136"/>
-      <c r="AE12" s="136"/>
-      <c r="AF12" s="136"/>
-      <c r="AG12" s="136"/>
+      <c r="Z12" s="129"/>
+      <c r="AA12" s="129"/>
+      <c r="AB12" s="129"/>
+      <c r="AC12" s="129"/>
+      <c r="AD12" s="129"/>
+      <c r="AE12" s="129"/>
+      <c r="AF12" s="129"/>
+      <c r="AG12" s="129"/>
     </row>
     <row r="13" spans="1:33" s="5" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="2"/>
@@ -3401,21 +3465,21 @@
       <c r="H14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="139" t="s">
+      <c r="I14" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="140"/>
+      <c r="J14" s="167"/>
       <c r="K14" s="6" t="s">
         <v>28</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="139" t="s">
+      <c r="M14" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="141"/>
-      <c r="O14" s="140"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="167"/>
       <c r="P14" s="8" t="s">
         <v>31</v>
       </c>
@@ -3503,453 +3567,426 @@
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
       <c r="X16" s="21"/>
-      <c r="Y16" s="136"/>
-      <c r="Z16" s="136"/>
-      <c r="AA16" s="136"/>
-      <c r="AB16" s="136"/>
-      <c r="AC16" s="136"/>
-      <c r="AD16" s="136"/>
-      <c r="AE16" s="136"/>
-      <c r="AF16" s="136"/>
-      <c r="AG16" s="136"/>
-    </row>
-    <row r="17" spans="1:33" ht="109.5" customHeight="1">
-      <c r="A17" s="22" t="s">
+      <c r="Y16" s="129"/>
+      <c r="Z16" s="129"/>
+      <c r="AA16" s="129"/>
+      <c r="AB16" s="129"/>
+      <c r="AC16" s="129"/>
+      <c r="AD16" s="129"/>
+      <c r="AE16" s="129"/>
+      <c r="AF16" s="129"/>
+      <c r="AG16" s="129"/>
+    </row>
+    <row r="17" spans="1:33" s="181" customFormat="1" ht="109.5" customHeight="1">
+      <c r="A17" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="168" t="s">
+      <c r="B17" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="169" t="s">
+      <c r="C17" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="170" t="s">
+      <c r="D17" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="176">
         <v>48</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="177">
         <v>9.6000000000000014</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="178" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="178" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="N17" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="30" t="s">
+      <c r="O17" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="136"/>
-      <c r="Z17" s="136"/>
-      <c r="AA17" s="136"/>
-      <c r="AB17" s="136"/>
-      <c r="AC17" s="136"/>
-      <c r="AD17" s="136"/>
-      <c r="AE17" s="136"/>
-      <c r="AF17" s="136"/>
-      <c r="AG17" s="136"/>
-    </row>
-    <row r="18" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A18" s="22" t="s">
+      <c r="P17" s="178"/>
+      <c r="Q17" s="180"/>
+      <c r="R17" s="180"/>
+      <c r="S17" s="180"/>
+      <c r="T17" s="180"/>
+      <c r="U17" s="180"/>
+      <c r="V17" s="180"/>
+      <c r="W17" s="180"/>
+      <c r="X17" s="180"/>
+    </row>
+    <row r="18" spans="1:33" s="181" customFormat="1" ht="74.25" customHeight="1">
+      <c r="A18" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="168" t="s">
+      <c r="B18" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="169" t="s">
+      <c r="C18" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="170" t="s">
+      <c r="D18" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="173" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="176">
         <v>67.2</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="177">
         <v>13.440000000000001</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="178" t="s">
         <v>57</v>
       </c>
-      <c r="L18" s="29" t="s">
+      <c r="L18" s="178" t="s">
         <v>58</v>
       </c>
-      <c r="M18" s="30" t="s">
+      <c r="M18" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="N18" s="30" t="s">
+      <c r="N18" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="O18" s="30" t="s">
+      <c r="O18" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="136"/>
-      <c r="Z18" s="136"/>
-      <c r="AA18" s="136"/>
-      <c r="AB18" s="136"/>
-      <c r="AC18" s="136"/>
-      <c r="AD18" s="136"/>
-      <c r="AE18" s="136"/>
-      <c r="AF18" s="136"/>
-      <c r="AG18" s="136"/>
-    </row>
-    <row r="19" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A19" s="31" t="s">
+      <c r="P18" s="178"/>
+      <c r="Q18" s="180"/>
+      <c r="R18" s="180"/>
+      <c r="S18" s="180"/>
+      <c r="T18" s="180"/>
+      <c r="U18" s="180"/>
+      <c r="V18" s="180"/>
+      <c r="W18" s="180"/>
+      <c r="X18" s="180"/>
+    </row>
+    <row r="19" spans="1:33" s="181" customFormat="1" ht="74.25" customHeight="1">
+      <c r="A19" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="177" t="s">
+      <c r="B19" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="169" t="s">
+      <c r="C19" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="178" t="s">
+      <c r="D19" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="184" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="183" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="176">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="177">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="185" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="29" t="s">
+      <c r="L19" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="36" t="s">
+      <c r="M19" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="36" t="s">
+      <c r="N19" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="O19" s="36" t="s">
+      <c r="O19" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="136"/>
-      <c r="Z19" s="136"/>
-      <c r="AA19" s="136"/>
-      <c r="AB19" s="136"/>
-      <c r="AC19" s="136"/>
-      <c r="AD19" s="136"/>
-      <c r="AE19" s="136"/>
-      <c r="AF19" s="136"/>
-      <c r="AG19" s="136"/>
-    </row>
-    <row r="20" spans="1:33" s="5" customFormat="1" ht="74.25" customHeight="1">
-      <c r="A20" s="31" t="s">
+      <c r="P19" s="185"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="186"/>
+      <c r="S19" s="186"/>
+      <c r="T19" s="186"/>
+      <c r="U19" s="186"/>
+      <c r="V19" s="186"/>
+      <c r="W19" s="186"/>
+      <c r="X19" s="186"/>
+    </row>
+    <row r="20" spans="1:33" s="191" customFormat="1" ht="74.25" customHeight="1">
+      <c r="A20" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="187" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="188" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="189" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="190" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="176">
         <v>28.8</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="177">
         <v>7.2</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="178" t="s">
         <v>80</v>
       </c>
-      <c r="L20" s="29" t="s">
+      <c r="L20" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="29" t="s">
+      <c r="M20" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="N20" s="29" t="s">
+      <c r="N20" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="O20" s="29" t="s">
+      <c r="O20" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="136"/>
-      <c r="Z20" s="136"/>
-      <c r="AA20" s="136"/>
-      <c r="AB20" s="136"/>
-      <c r="AC20" s="136"/>
-      <c r="AD20" s="136"/>
-      <c r="AE20" s="136"/>
-      <c r="AF20" s="136"/>
-      <c r="AG20" s="136"/>
-    </row>
-    <row r="21" spans="1:33" s="41" customFormat="1" ht="74.25" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="P20" s="178"/>
+      <c r="Q20" s="180"/>
+      <c r="R20" s="180"/>
+      <c r="S20" s="180"/>
+      <c r="T20" s="180"/>
+      <c r="U20" s="180"/>
+      <c r="V20" s="180"/>
+      <c r="W20" s="180"/>
+      <c r="X20" s="180"/>
+      <c r="Y20" s="181"/>
+      <c r="Z20" s="181"/>
+      <c r="AA20" s="181"/>
+      <c r="AB20" s="181"/>
+      <c r="AC20" s="181"/>
+      <c r="AD20" s="181"/>
+      <c r="AE20" s="181"/>
+      <c r="AF20" s="181"/>
+      <c r="AG20" s="181"/>
+    </row>
+    <row r="21" spans="1:33" s="194" customFormat="1" ht="74.25" customHeight="1">
+      <c r="A21" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="188" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="192" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="193" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="176">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="177">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="178" t="s">
         <v>87</v>
       </c>
-      <c r="L21" s="29" t="s">
+      <c r="L21" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="M21" s="29" t="s">
+      <c r="M21" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="N21" s="29" t="s">
+      <c r="N21" s="178" t="s">
         <v>88</v>
       </c>
-      <c r="O21" s="29" t="s">
+      <c r="O21" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="136"/>
-      <c r="Z21" s="136"/>
-      <c r="AA21" s="136"/>
-      <c r="AB21" s="136"/>
-      <c r="AC21" s="136"/>
-      <c r="AD21" s="136"/>
-      <c r="AE21" s="136"/>
-      <c r="AF21" s="136"/>
-      <c r="AG21" s="136"/>
-    </row>
-    <row r="22" spans="1:33" s="41" customFormat="1" ht="74.25" customHeight="1">
-      <c r="A22" s="31" t="s">
+      <c r="P21" s="178"/>
+      <c r="Q21" s="180"/>
+      <c r="R21" s="180"/>
+      <c r="S21" s="180"/>
+      <c r="T21" s="180"/>
+      <c r="U21" s="180"/>
+      <c r="V21" s="180"/>
+      <c r="W21" s="180"/>
+      <c r="X21" s="180"/>
+      <c r="Y21" s="181"/>
+      <c r="Z21" s="181"/>
+      <c r="AA21" s="181"/>
+      <c r="AB21" s="181"/>
+      <c r="AC21" s="181"/>
+      <c r="AD21" s="181"/>
+      <c r="AE21" s="181"/>
+      <c r="AF21" s="181"/>
+      <c r="AG21" s="181"/>
+    </row>
+    <row r="22" spans="1:33" s="34" customFormat="1" ht="74.25" customHeight="1">
+      <c r="A22" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="H22" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="25">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J22" s="28">
+      <c r="J22" s="26">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="L22" s="36" t="s">
+      <c r="L22" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="M22" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="36" t="s">
+      <c r="N22" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="O22" s="36" t="s">
+      <c r="O22" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="136"/>
-      <c r="Z22" s="136"/>
-      <c r="AA22" s="136"/>
-      <c r="AB22" s="136"/>
-      <c r="AC22" s="136"/>
-      <c r="AD22" s="136"/>
-      <c r="AE22" s="136"/>
-      <c r="AF22" s="136"/>
-      <c r="AG22" s="136"/>
-    </row>
-    <row r="23" spans="1:33" s="41" customFormat="1" ht="74.25" customHeight="1">
-      <c r="A23" s="31" t="s">
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="129"/>
+      <c r="Z22" s="129"/>
+      <c r="AA22" s="129"/>
+      <c r="AB22" s="129"/>
+      <c r="AC22" s="129"/>
+      <c r="AD22" s="129"/>
+      <c r="AE22" s="129"/>
+      <c r="AF22" s="129"/>
+      <c r="AG22" s="129"/>
+    </row>
+    <row r="23" spans="1:33" s="34" customFormat="1" ht="74.25" customHeight="1">
+      <c r="A23" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="25">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="26">
         <v>1.9200000000000004</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="L23" s="29" t="s">
+      <c r="L23" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="M23" s="29" t="s">
+      <c r="M23" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="N23" s="29" t="s">
+      <c r="N23" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="O23" s="29" t="s">
+      <c r="O23" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="P23" s="29"/>
+      <c r="P23" s="27"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
@@ -3958,63 +3995,63 @@
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
       <c r="X23" s="21"/>
-      <c r="Y23" s="136"/>
-      <c r="Z23" s="136"/>
-      <c r="AA23" s="136"/>
-      <c r="AB23" s="136"/>
-      <c r="AC23" s="136"/>
-      <c r="AD23" s="136"/>
-      <c r="AE23" s="136"/>
-      <c r="AF23" s="136"/>
-      <c r="AG23" s="136"/>
+      <c r="Y23" s="129"/>
+      <c r="Z23" s="129"/>
+      <c r="AA23" s="129"/>
+      <c r="AB23" s="129"/>
+      <c r="AC23" s="129"/>
+      <c r="AD23" s="129"/>
+      <c r="AE23" s="129"/>
+      <c r="AF23" s="129"/>
+      <c r="AG23" s="129"/>
     </row>
     <row r="24" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="171" t="s">
+      <c r="C24" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="171" t="s">
+      <c r="D24" s="135" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="H24" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I24" s="51">
+      <c r="I24" s="44">
         <v>43.2</v>
       </c>
-      <c r="J24" s="52">
+      <c r="J24" s="45">
         <v>8.64</v>
       </c>
-      <c r="K24" s="53" t="s">
+      <c r="K24" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="L24" s="53" t="s">
+      <c r="L24" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="M24" s="54" t="s">
+      <c r="M24" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="N24" s="54" t="s">
+      <c r="N24" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="O24" s="54" t="s">
+      <c r="O24" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="P24" s="53"/>
+      <c r="P24" s="46"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
@@ -4034,52 +4071,52 @@
       <c r="AG24" s="21"/>
     </row>
     <row r="25" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="172" t="s">
+      <c r="C25" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="171" t="s">
+      <c r="D25" s="135" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="G25" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="44">
         <v>72</v>
       </c>
-      <c r="J25" s="52">
+      <c r="J25" s="45">
         <v>14.4</v>
       </c>
-      <c r="K25" s="53" t="s">
+      <c r="K25" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="L25" s="53" t="s">
+      <c r="L25" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="M25" s="54" t="s">
+      <c r="M25" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="N25" s="54" t="s">
+      <c r="N25" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="O25" s="54" t="s">
+      <c r="O25" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="P25" s="53"/>
+      <c r="P25" s="46"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
@@ -4099,312 +4136,312 @@
       <c r="AG25" s="21"/>
     </row>
     <row r="26" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="172" t="s">
+      <c r="C26" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="173" t="s">
+      <c r="D26" s="137" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="44">
         <v>102.4</v>
       </c>
-      <c r="J26" s="52">
+      <c r="J26" s="45">
         <v>20.480000000000004</v>
       </c>
-      <c r="K26" s="53" t="s">
+      <c r="K26" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="L26" s="53" t="s">
+      <c r="L26" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="M26" s="54" t="s">
+      <c r="M26" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="N26" s="54" t="s">
+      <c r="N26" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="O26" s="54" t="s">
+      <c r="O26" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="41"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
     </row>
     <row r="27" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="172" t="s">
+      <c r="C27" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="174" t="s">
+      <c r="D27" s="138" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="44">
         <v>120</v>
       </c>
-      <c r="J27" s="52">
+      <c r="J27" s="45">
         <v>24</v>
       </c>
-      <c r="K27" s="53" t="s">
+      <c r="K27" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="L27" s="53" t="s">
+      <c r="L27" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="M27" s="54" t="s">
+      <c r="M27" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="N27" s="54" t="s">
+      <c r="N27" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="O27" s="54" t="s">
+      <c r="O27" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
     </row>
     <row r="28" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="172" t="s">
+      <c r="C28" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="174" t="s">
+      <c r="D28" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="I28" s="51">
+      <c r="I28" s="44">
         <v>200</v>
       </c>
-      <c r="J28" s="52">
+      <c r="J28" s="45">
         <v>40</v>
       </c>
-      <c r="K28" s="53" t="s">
+      <c r="K28" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="L28" s="53" t="s">
+      <c r="L28" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="M28" s="54" t="s">
+      <c r="M28" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="N28" s="54" t="s">
+      <c r="N28" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="O28" s="54" t="s">
+      <c r="O28" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="41"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="41"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
     </row>
     <row r="29" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="61" t="s">
+      <c r="G29" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="44">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J29" s="52">
+      <c r="J29" s="45">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="L29" s="53" t="s">
+      <c r="L29" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="M29" s="62" t="s">
+      <c r="M29" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="62" t="s">
+      <c r="N29" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="O29" s="62" t="s">
+      <c r="O29" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="136"/>
-      <c r="Z29" s="136"/>
-      <c r="AA29" s="136"/>
-      <c r="AB29" s="136"/>
-      <c r="AC29" s="136"/>
-      <c r="AD29" s="136"/>
-      <c r="AE29" s="136"/>
-      <c r="AF29" s="136"/>
-      <c r="AG29" s="136"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="129"/>
+      <c r="Z29" s="129"/>
+      <c r="AA29" s="129"/>
+      <c r="AB29" s="129"/>
+      <c r="AC29" s="129"/>
+      <c r="AD29" s="129"/>
+      <c r="AE29" s="129"/>
+      <c r="AF29" s="129"/>
+      <c r="AG29" s="129"/>
     </row>
     <row r="30" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="H30" s="50" t="s">
+      <c r="H30" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="51">
+      <c r="I30" s="44">
         <v>21.6</v>
       </c>
-      <c r="J30" s="52">
+      <c r="J30" s="45">
         <v>5.4</v>
       </c>
-      <c r="K30" s="53" t="s">
+      <c r="K30" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="L30" s="53" t="s">
+      <c r="L30" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="M30" s="53" t="s">
+      <c r="M30" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="N30" s="53" t="s">
+      <c r="N30" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="O30" s="53" t="s">
+      <c r="O30" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="P30" s="53"/>
+      <c r="P30" s="46"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
@@ -4413,63 +4450,63 @@
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
       <c r="X30" s="21"/>
-      <c r="Y30" s="136"/>
-      <c r="Z30" s="136"/>
-      <c r="AA30" s="136"/>
-      <c r="AB30" s="136"/>
-      <c r="AC30" s="136"/>
-      <c r="AD30" s="136"/>
-      <c r="AE30" s="136"/>
-      <c r="AF30" s="136"/>
-      <c r="AG30" s="136"/>
+      <c r="Y30" s="129"/>
+      <c r="Z30" s="129"/>
+      <c r="AA30" s="129"/>
+      <c r="AB30" s="129"/>
+      <c r="AC30" s="129"/>
+      <c r="AD30" s="129"/>
+      <c r="AE30" s="129"/>
+      <c r="AF30" s="129"/>
+      <c r="AG30" s="129"/>
     </row>
     <row r="31" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="I31" s="51">
+      <c r="I31" s="44">
         <v>32</v>
       </c>
-      <c r="J31" s="52">
+      <c r="J31" s="45">
         <v>8</v>
       </c>
-      <c r="K31" s="53" t="s">
+      <c r="K31" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="L31" s="53" t="s">
+      <c r="L31" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="M31" s="53" t="s">
+      <c r="M31" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="N31" s="53" t="s">
+      <c r="N31" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="O31" s="53" t="s">
+      <c r="O31" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="P31" s="53"/>
+      <c r="P31" s="46"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
@@ -4489,52 +4526,52 @@
       <c r="AG31" s="5"/>
     </row>
     <row r="32" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="E32" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="G32" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="H32" s="50" t="s">
+      <c r="H32" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="I32" s="51">
+      <c r="I32" s="44">
         <v>20</v>
       </c>
-      <c r="J32" s="52">
+      <c r="J32" s="45">
         <v>5</v>
       </c>
-      <c r="K32" s="53" t="s">
+      <c r="K32" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="L32" s="53" t="s">
+      <c r="L32" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="M32" s="53" t="s">
+      <c r="M32" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="N32" s="53" t="s">
+      <c r="N32" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="O32" s="53" t="s">
+      <c r="O32" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="P32" s="53"/>
+      <c r="P32" s="46"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
@@ -4554,52 +4591,52 @@
       <c r="AG32" s="5"/>
     </row>
     <row r="33" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="57" t="s">
+      <c r="F33" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="G33" s="57" t="s">
+      <c r="G33" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="H33" s="64" t="s">
+      <c r="H33" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="I33" s="51">
+      <c r="I33" s="44">
         <v>20</v>
       </c>
-      <c r="J33" s="52">
+      <c r="J33" s="45">
         <v>5</v>
       </c>
-      <c r="K33" s="53" t="s">
+      <c r="K33" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="L33" s="53" t="s">
+      <c r="L33" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="M33" s="53" t="s">
+      <c r="M33" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="N33" s="53" t="s">
+      <c r="N33" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="53" t="s">
+      <c r="O33" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="P33" s="53"/>
+      <c r="P33" s="46"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
@@ -4619,52 +4656,52 @@
       <c r="AG33" s="5"/>
     </row>
     <row r="34" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="65" t="s">
+      <c r="E34" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="57" t="s">
+      <c r="F34" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="G34" s="57" t="s">
+      <c r="G34" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="H34" s="50" t="s">
+      <c r="H34" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="51">
+      <c r="I34" s="44">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J34" s="52">
+      <c r="J34" s="45">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K34" s="53" t="s">
+      <c r="K34" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="L34" s="53" t="s">
+      <c r="L34" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="M34" s="53" t="s">
+      <c r="M34" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="N34" s="53" t="s">
+      <c r="N34" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="O34" s="53" t="s">
+      <c r="O34" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="P34" s="53"/>
+      <c r="P34" s="46"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
@@ -4673,323 +4710,323 @@
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
       <c r="X34" s="21"/>
-      <c r="Y34" s="136"/>
-      <c r="Z34" s="136"/>
-      <c r="AA34" s="136"/>
-      <c r="AB34" s="136"/>
-      <c r="AC34" s="136"/>
-      <c r="AD34" s="136"/>
-      <c r="AE34" s="136"/>
-      <c r="AF34" s="136"/>
-      <c r="AG34" s="136"/>
+      <c r="Y34" s="129"/>
+      <c r="Z34" s="129"/>
+      <c r="AA34" s="129"/>
+      <c r="AB34" s="129"/>
+      <c r="AC34" s="129"/>
+      <c r="AD34" s="129"/>
+      <c r="AE34" s="129"/>
+      <c r="AF34" s="129"/>
+      <c r="AG34" s="129"/>
     </row>
     <row r="35" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="F35" s="67" t="s">
+      <c r="F35" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="67" t="s">
+      <c r="G35" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="H35" s="68" t="s">
+      <c r="H35" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="I35" s="51">
+      <c r="I35" s="44">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J35" s="52">
+      <c r="J35" s="45">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K35" s="62" t="s">
+      <c r="K35" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="L35" s="53" t="s">
+      <c r="L35" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="M35" s="62" t="s">
+      <c r="M35" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="N35" s="62" t="s">
+      <c r="N35" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="O35" s="62" t="s">
+      <c r="O35" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="136"/>
-      <c r="Z35" s="136"/>
-      <c r="AA35" s="136"/>
-      <c r="AB35" s="136"/>
-      <c r="AC35" s="136"/>
-      <c r="AD35" s="136"/>
-      <c r="AE35" s="136"/>
-      <c r="AF35" s="136"/>
-      <c r="AG35" s="136"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="129"/>
+      <c r="Z35" s="129"/>
+      <c r="AA35" s="129"/>
+      <c r="AB35" s="129"/>
+      <c r="AC35" s="129"/>
+      <c r="AD35" s="129"/>
+      <c r="AE35" s="129"/>
+      <c r="AF35" s="129"/>
+      <c r="AG35" s="129"/>
     </row>
     <row r="36" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="F36" s="67" t="s">
+      <c r="F36" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="G36" s="67" t="s">
+      <c r="G36" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="H36" s="68" t="s">
+      <c r="H36" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="I36" s="51">
+      <c r="I36" s="44">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J36" s="52">
+      <c r="J36" s="45">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K36" s="62" t="s">
+      <c r="K36" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="L36" s="53" t="s">
+      <c r="L36" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="M36" s="62" t="s">
+      <c r="M36" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="N36" s="62" t="s">
+      <c r="N36" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="O36" s="62" t="s">
+      <c r="O36" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="136"/>
-      <c r="Z36" s="136"/>
-      <c r="AA36" s="136"/>
-      <c r="AB36" s="136"/>
-      <c r="AC36" s="136"/>
-      <c r="AD36" s="136"/>
-      <c r="AE36" s="136"/>
-      <c r="AF36" s="136"/>
-      <c r="AG36" s="136"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="129"/>
+      <c r="Z36" s="129"/>
+      <c r="AA36" s="129"/>
+      <c r="AB36" s="129"/>
+      <c r="AC36" s="129"/>
+      <c r="AD36" s="129"/>
+      <c r="AE36" s="129"/>
+      <c r="AF36" s="129"/>
+      <c r="AG36" s="129"/>
     </row>
     <row r="37" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="E37" s="69" t="s">
+      <c r="E37" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="F37" s="67" t="s">
+      <c r="F37" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="G37" s="67" t="s">
+      <c r="G37" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="H37" s="66" t="s">
+      <c r="H37" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="51">
+      <c r="I37" s="44">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J37" s="52">
+      <c r="J37" s="45">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K37" s="51" t="s">
+      <c r="K37" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="L37" s="62" t="s">
+      <c r="L37" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="M37" s="53" t="s">
+      <c r="M37" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="N37" s="62" t="s">
+      <c r="N37" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="62" t="s">
+      <c r="O37" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="136"/>
-      <c r="Z37" s="136"/>
-      <c r="AA37" s="136"/>
-      <c r="AB37" s="136"/>
-      <c r="AC37" s="136"/>
-      <c r="AD37" s="136"/>
-      <c r="AE37" s="136"/>
-      <c r="AF37" s="136"/>
-      <c r="AG37" s="136"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="129"/>
+      <c r="Z37" s="129"/>
+      <c r="AA37" s="129"/>
+      <c r="AB37" s="129"/>
+      <c r="AC37" s="129"/>
+      <c r="AD37" s="129"/>
+      <c r="AE37" s="129"/>
+      <c r="AF37" s="129"/>
+      <c r="AG37" s="129"/>
     </row>
     <row r="38" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="E38" s="69" t="s">
+      <c r="E38" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="F38" s="67" t="s">
+      <c r="F38" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="G38" s="67" t="s">
+      <c r="G38" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="H38" s="66" t="s">
+      <c r="H38" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="I38" s="51">
+      <c r="I38" s="44">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J38" s="52">
+      <c r="J38" s="45">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K38" s="51" t="s">
+      <c r="K38" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="L38" s="62" t="s">
+      <c r="L38" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="M38" s="53" t="s">
+      <c r="M38" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="N38" s="62" t="s">
+      <c r="N38" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="O38" s="62" t="s">
+      <c r="O38" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="136"/>
-      <c r="Z38" s="136"/>
-      <c r="AA38" s="136"/>
-      <c r="AB38" s="136"/>
-      <c r="AC38" s="136"/>
-      <c r="AD38" s="136"/>
-      <c r="AE38" s="136"/>
-      <c r="AF38" s="136"/>
-      <c r="AG38" s="136"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="129"/>
+      <c r="Z38" s="129"/>
+      <c r="AA38" s="129"/>
+      <c r="AB38" s="129"/>
+      <c r="AC38" s="129"/>
+      <c r="AD38" s="129"/>
+      <c r="AE38" s="129"/>
+      <c r="AF38" s="129"/>
+      <c r="AG38" s="129"/>
     </row>
     <row r="39" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="E39" s="65" t="s">
+      <c r="E39" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="F39" s="57" t="s">
+      <c r="F39" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="G39" s="57" t="s">
+      <c r="G39" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="H39" s="50" t="s">
+      <c r="H39" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="I39" s="51">
+      <c r="I39" s="44">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J39" s="52">
+      <c r="J39" s="45">
         <v>1.9200000000000004</v>
       </c>
-      <c r="K39" s="53" t="s">
+      <c r="K39" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="L39" s="53" t="s">
+      <c r="L39" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="M39" s="53" t="s">
+      <c r="M39" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="N39" s="53" t="s">
+      <c r="N39" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="O39" s="53" t="s">
+      <c r="O39" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="P39" s="53"/>
+      <c r="P39" s="46"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
@@ -4998,614 +5035,614 @@
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
       <c r="X39" s="21"/>
-      <c r="Y39" s="136"/>
-      <c r="Z39" s="136"/>
-      <c r="AA39" s="136"/>
-      <c r="AB39" s="136"/>
-      <c r="AC39" s="136"/>
-      <c r="AD39" s="136"/>
-      <c r="AE39" s="136"/>
-      <c r="AF39" s="136"/>
-      <c r="AG39" s="136"/>
+      <c r="Y39" s="129"/>
+      <c r="Z39" s="129"/>
+      <c r="AA39" s="129"/>
+      <c r="AB39" s="129"/>
+      <c r="AC39" s="129"/>
+      <c r="AD39" s="129"/>
+      <c r="AE39" s="129"/>
+      <c r="AF39" s="129"/>
+      <c r="AG39" s="129"/>
     </row>
     <row r="40" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="62" t="s">
+      <c r="D40" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="E40" s="62" t="s">
+      <c r="E40" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="G40" s="46" t="s">
+      <c r="G40" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="H40" s="47" t="s">
+      <c r="H40" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="51">
+      <c r="I40" s="44">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J40" s="52">
+      <c r="J40" s="45">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K40" s="69" t="s">
+      <c r="K40" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="L40" s="53" t="s">
+      <c r="L40" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="M40" s="69" t="s">
+      <c r="M40" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="N40" s="69" t="s">
+      <c r="N40" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="O40" s="69" t="s">
+      <c r="O40" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="136"/>
-      <c r="R40" s="136"/>
-      <c r="S40" s="136"/>
-      <c r="T40" s="136"/>
-      <c r="U40" s="136"/>
-      <c r="V40" s="136"/>
-      <c r="W40" s="136"/>
-      <c r="X40" s="136"/>
-      <c r="Y40" s="136"/>
-      <c r="Z40" s="136"/>
-      <c r="AA40" s="136"/>
-      <c r="AB40" s="136"/>
-      <c r="AC40" s="136"/>
-      <c r="AD40" s="136"/>
-      <c r="AE40" s="136"/>
-      <c r="AF40" s="136"/>
-      <c r="AG40" s="136"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="129"/>
+      <c r="R40" s="129"/>
+      <c r="S40" s="129"/>
+      <c r="T40" s="129"/>
+      <c r="U40" s="129"/>
+      <c r="V40" s="129"/>
+      <c r="W40" s="129"/>
+      <c r="X40" s="129"/>
+      <c r="Y40" s="129"/>
+      <c r="Z40" s="129"/>
+      <c r="AA40" s="129"/>
+      <c r="AB40" s="129"/>
+      <c r="AC40" s="129"/>
+      <c r="AD40" s="129"/>
+      <c r="AE40" s="129"/>
+      <c r="AF40" s="129"/>
+      <c r="AG40" s="129"/>
     </row>
     <row r="41" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="D41" s="70" t="s">
+      <c r="D41" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="F41" s="71" t="s">
+      <c r="F41" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="G41" s="71" t="s">
+      <c r="G41" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="H41" s="72" t="s">
+      <c r="H41" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="I41" s="73">
+      <c r="I41" s="66">
         <v>6.4</v>
       </c>
-      <c r="J41" s="74">
+      <c r="J41" s="67">
         <v>1.6</v>
       </c>
-      <c r="K41" s="75" t="s">
+      <c r="K41" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="L41" s="76" t="s">
+      <c r="L41" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="M41" s="75" t="s">
+      <c r="M41" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="N41" s="75" t="s">
+      <c r="N41" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="O41" s="75" t="s">
+      <c r="O41" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="136"/>
-      <c r="R41" s="136"/>
-      <c r="S41" s="136"/>
-      <c r="T41" s="136"/>
-      <c r="U41" s="136"/>
-      <c r="V41" s="136"/>
-      <c r="W41" s="136"/>
-      <c r="X41" s="136"/>
-      <c r="Y41" s="136"/>
-      <c r="Z41" s="136"/>
-      <c r="AA41" s="136"/>
-      <c r="AB41" s="136"/>
-      <c r="AC41" s="136"/>
-      <c r="AD41" s="136"/>
-      <c r="AE41" s="136"/>
-      <c r="AF41" s="136"/>
-      <c r="AG41" s="136"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="129"/>
+      <c r="S41" s="129"/>
+      <c r="T41" s="129"/>
+      <c r="U41" s="129"/>
+      <c r="V41" s="129"/>
+      <c r="W41" s="129"/>
+      <c r="X41" s="129"/>
+      <c r="Y41" s="129"/>
+      <c r="Z41" s="129"/>
+      <c r="AA41" s="129"/>
+      <c r="AB41" s="129"/>
+      <c r="AC41" s="129"/>
+      <c r="AD41" s="129"/>
+      <c r="AE41" s="129"/>
+      <c r="AF41" s="129"/>
+      <c r="AG41" s="129"/>
     </row>
     <row r="42" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="D42" s="62" t="s">
+      <c r="D42" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="62" t="s">
+      <c r="E42" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="F42" s="62" t="s">
+      <c r="F42" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="G42" s="62" t="s">
+      <c r="G42" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="H42" s="47" t="s">
+      <c r="H42" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="51">
+      <c r="I42" s="44">
         <v>12.8</v>
       </c>
-      <c r="J42" s="51">
+      <c r="J42" s="44">
         <v>3.2</v>
       </c>
-      <c r="K42" s="69" t="s">
+      <c r="K42" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="L42" s="53" t="s">
+      <c r="L42" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="M42" s="69" t="s">
+      <c r="M42" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="N42" s="69" t="s">
+      <c r="N42" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="O42" s="69" t="s">
+      <c r="O42" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="136"/>
-      <c r="R42" s="136"/>
-      <c r="S42" s="136"/>
-      <c r="T42" s="136"/>
-      <c r="U42" s="136"/>
-      <c r="V42" s="136"/>
-      <c r="W42" s="136"/>
-      <c r="X42" s="136"/>
-      <c r="Y42" s="136"/>
-      <c r="Z42" s="136"/>
-      <c r="AA42" s="136"/>
-      <c r="AB42" s="136"/>
-      <c r="AC42" s="136"/>
-      <c r="AD42" s="136"/>
-      <c r="AE42" s="136"/>
-      <c r="AF42" s="136"/>
-      <c r="AG42" s="136"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="129"/>
+      <c r="R42" s="129"/>
+      <c r="S42" s="129"/>
+      <c r="T42" s="129"/>
+      <c r="U42" s="129"/>
+      <c r="V42" s="129"/>
+      <c r="W42" s="129"/>
+      <c r="X42" s="129"/>
+      <c r="Y42" s="129"/>
+      <c r="Z42" s="129"/>
+      <c r="AA42" s="129"/>
+      <c r="AB42" s="129"/>
+      <c r="AC42" s="129"/>
+      <c r="AD42" s="129"/>
+      <c r="AE42" s="129"/>
+      <c r="AF42" s="129"/>
+      <c r="AG42" s="129"/>
     </row>
     <row r="43" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="D43" s="62" t="s">
+      <c r="D43" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="E43" s="62" t="s">
+      <c r="E43" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="F43" s="62" t="s">
+      <c r="F43" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="G43" s="62" t="s">
+      <c r="G43" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="H43" s="47" t="s">
+      <c r="H43" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I43" s="51">
+      <c r="I43" s="44">
         <v>11.200000000000001</v>
       </c>
-      <c r="J43" s="51">
+      <c r="J43" s="44">
         <v>2.8000000000000003</v>
       </c>
-      <c r="K43" s="69" t="s">
+      <c r="K43" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="L43" s="53" t="s">
+      <c r="L43" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="M43" s="69" t="s">
+      <c r="M43" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="N43" s="69" t="s">
+      <c r="N43" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="O43" s="69" t="s">
+      <c r="O43" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="P43" s="69"/>
-      <c r="Q43" s="136"/>
-      <c r="R43" s="136"/>
-      <c r="S43" s="136"/>
-      <c r="T43" s="136"/>
-      <c r="U43" s="136"/>
-      <c r="V43" s="136"/>
-      <c r="W43" s="136"/>
-      <c r="X43" s="136"/>
-      <c r="Y43" s="136"/>
-      <c r="Z43" s="136"/>
-      <c r="AA43" s="136"/>
-      <c r="AB43" s="136"/>
-      <c r="AC43" s="136"/>
-      <c r="AD43" s="136"/>
-      <c r="AE43" s="136"/>
-      <c r="AF43" s="136"/>
-      <c r="AG43" s="136"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="129"/>
+      <c r="R43" s="129"/>
+      <c r="S43" s="129"/>
+      <c r="T43" s="129"/>
+      <c r="U43" s="129"/>
+      <c r="V43" s="129"/>
+      <c r="W43" s="129"/>
+      <c r="X43" s="129"/>
+      <c r="Y43" s="129"/>
+      <c r="Z43" s="129"/>
+      <c r="AA43" s="129"/>
+      <c r="AB43" s="129"/>
+      <c r="AC43" s="129"/>
+      <c r="AD43" s="129"/>
+      <c r="AE43" s="129"/>
+      <c r="AF43" s="129"/>
+      <c r="AG43" s="129"/>
     </row>
     <row r="44" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="D44" s="62" t="s">
+      <c r="D44" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="E44" s="62" t="s">
+      <c r="E44" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="F44" s="62" t="s">
+      <c r="F44" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="G44" s="62" t="s">
+      <c r="G44" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="H44" s="47" t="s">
+      <c r="H44" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I44" s="51">
+      <c r="I44" s="44">
         <v>11.200000000000001</v>
       </c>
-      <c r="J44" s="51">
+      <c r="J44" s="44">
         <v>2.8000000000000003</v>
       </c>
-      <c r="K44" s="69" t="s">
+      <c r="K44" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="L44" s="53" t="s">
+      <c r="L44" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="M44" s="69" t="s">
+      <c r="M44" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="N44" s="69" t="s">
+      <c r="N44" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="O44" s="69" t="s">
+      <c r="O44" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="P44" s="69"/>
-      <c r="Q44" s="136"/>
-      <c r="R44" s="136"/>
-      <c r="S44" s="136"/>
-      <c r="T44" s="136"/>
-      <c r="U44" s="136"/>
-      <c r="V44" s="136"/>
-      <c r="W44" s="136"/>
-      <c r="X44" s="136"/>
-      <c r="Y44" s="136"/>
-      <c r="Z44" s="136"/>
-      <c r="AA44" s="136"/>
-      <c r="AB44" s="136"/>
-      <c r="AC44" s="136"/>
-      <c r="AD44" s="136"/>
-      <c r="AE44" s="136"/>
-      <c r="AF44" s="136"/>
-      <c r="AG44" s="136"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="129"/>
+      <c r="R44" s="129"/>
+      <c r="S44" s="129"/>
+      <c r="T44" s="129"/>
+      <c r="U44" s="129"/>
+      <c r="V44" s="129"/>
+      <c r="W44" s="129"/>
+      <c r="X44" s="129"/>
+      <c r="Y44" s="129"/>
+      <c r="Z44" s="129"/>
+      <c r="AA44" s="129"/>
+      <c r="AB44" s="129"/>
+      <c r="AC44" s="129"/>
+      <c r="AD44" s="129"/>
+      <c r="AE44" s="129"/>
+      <c r="AF44" s="129"/>
+      <c r="AG44" s="129"/>
     </row>
     <row r="45" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="62" t="s">
+      <c r="D45" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="E45" s="62" t="s">
+      <c r="E45" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="F45" s="62" t="s">
+      <c r="F45" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="G45" s="62" t="s">
+      <c r="G45" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="H45" s="47" t="s">
+      <c r="H45" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I45" s="51">
+      <c r="I45" s="44">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J45" s="51">
+      <c r="J45" s="44">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K45" s="69" t="s">
+      <c r="K45" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="L45" s="53" t="s">
+      <c r="L45" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="M45" s="69" t="s">
+      <c r="M45" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="N45" s="69" t="s">
+      <c r="N45" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="O45" s="69" t="s">
+      <c r="O45" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="P45" s="69"/>
-      <c r="Q45" s="136"/>
-      <c r="R45" s="136"/>
-      <c r="S45" s="136"/>
-      <c r="T45" s="136"/>
-      <c r="U45" s="136"/>
-      <c r="V45" s="136"/>
-      <c r="W45" s="136"/>
-      <c r="X45" s="136"/>
-      <c r="Y45" s="136"/>
-      <c r="Z45" s="136"/>
-      <c r="AA45" s="136"/>
-      <c r="AB45" s="136"/>
-      <c r="AC45" s="136"/>
-      <c r="AD45" s="136"/>
-      <c r="AE45" s="136"/>
-      <c r="AF45" s="136"/>
-      <c r="AG45" s="136"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="129"/>
+      <c r="R45" s="129"/>
+      <c r="S45" s="129"/>
+      <c r="T45" s="129"/>
+      <c r="U45" s="129"/>
+      <c r="V45" s="129"/>
+      <c r="W45" s="129"/>
+      <c r="X45" s="129"/>
+      <c r="Y45" s="129"/>
+      <c r="Z45" s="129"/>
+      <c r="AA45" s="129"/>
+      <c r="AB45" s="129"/>
+      <c r="AC45" s="129"/>
+      <c r="AD45" s="129"/>
+      <c r="AE45" s="129"/>
+      <c r="AF45" s="129"/>
+      <c r="AG45" s="129"/>
     </row>
     <row r="46" spans="1:33" s="5" customFormat="1" ht="80.25" customHeight="1">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="D46" s="77" t="s">
+      <c r="D46" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="E46" s="77" t="s">
+      <c r="E46" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="F46" s="78" t="s">
+      <c r="F46" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="G46" s="78" t="s">
+      <c r="G46" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="H46" s="77" t="s">
+      <c r="H46" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="I46" s="77">
+      <c r="I46" s="70">
         <v>13</v>
       </c>
-      <c r="J46" s="78">
+      <c r="J46" s="71">
         <v>5</v>
       </c>
-      <c r="K46" s="77" t="s">
+      <c r="K46" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="L46" s="77" t="s">
+      <c r="L46" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="M46" s="77" t="s">
+      <c r="M46" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="N46" s="77" t="s">
+      <c r="N46" s="70" t="s">
         <v>228</v>
       </c>
-      <c r="O46" s="77" t="s">
+      <c r="O46" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="P46" s="77"/>
+      <c r="P46" s="70"/>
     </row>
     <row r="47" spans="1:33" s="5" customFormat="1" ht="80.25" customHeight="1">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="F47" s="57" t="s">
+      <c r="F47" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="G47" s="57" t="s">
+      <c r="G47" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="H47" s="47" t="s">
+      <c r="H47" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="I47" s="47">
+      <c r="I47" s="40">
         <v>10</v>
       </c>
-      <c r="J47" s="57">
+      <c r="J47" s="50">
         <v>2</v>
       </c>
-      <c r="K47" s="47" t="s">
+      <c r="K47" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="L47" s="47" t="s">
+      <c r="L47" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="M47" s="47" t="s">
+      <c r="M47" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="N47" s="47" t="s">
+      <c r="N47" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="O47" s="47" t="s">
+      <c r="O47" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="P47" s="47"/>
+      <c r="P47" s="40"/>
     </row>
     <row r="48" spans="1:33" ht="74.25" customHeight="1">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="B48" s="80" t="s">
+      <c r="B48" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="81" t="s">
+      <c r="C48" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="82" t="s">
+      <c r="D48" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="E48" s="82" t="s">
+      <c r="E48" s="75" t="s">
         <v>236</v>
       </c>
-      <c r="F48" s="83" t="s">
+      <c r="F48" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="G48" s="83" t="s">
+      <c r="G48" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="H48" s="84" t="s">
+      <c r="H48" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="I48" s="85">
+      <c r="I48" s="78">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J48" s="86">
+      <c r="J48" s="79">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K48" s="87" t="s">
+      <c r="K48" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="L48" s="88" t="s">
+      <c r="L48" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="M48" s="87" t="s">
+      <c r="M48" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="N48" s="87" t="s">
+      <c r="N48" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="O48" s="87" t="s">
+      <c r="O48" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="136"/>
-      <c r="Z48" s="136"/>
-      <c r="AA48" s="136"/>
-      <c r="AB48" s="136"/>
-      <c r="AC48" s="136"/>
-      <c r="AD48" s="136"/>
-      <c r="AE48" s="136"/>
-      <c r="AF48" s="136"/>
-      <c r="AG48" s="136"/>
+      <c r="P48" s="80"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="129"/>
+      <c r="Z48" s="129"/>
+      <c r="AA48" s="129"/>
+      <c r="AB48" s="129"/>
+      <c r="AC48" s="129"/>
+      <c r="AD48" s="129"/>
+      <c r="AE48" s="129"/>
+      <c r="AF48" s="129"/>
+      <c r="AG48" s="129"/>
     </row>
     <row r="49" spans="1:24" ht="74.25" customHeight="1">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="B49" s="80" t="s">
+      <c r="B49" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="C49" s="81" t="s">
+      <c r="C49" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="90" t="s">
+      <c r="D49" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="E49" s="90" t="s">
+      <c r="E49" s="83" t="s">
         <v>241</v>
       </c>
-      <c r="F49" s="80" t="s">
+      <c r="F49" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="G49" s="80" t="s">
+      <c r="G49" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="H49" s="84" t="s">
+      <c r="H49" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="I49" s="85">
+      <c r="I49" s="78">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J49" s="86">
+      <c r="J49" s="79">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K49" s="88" t="s">
+      <c r="K49" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="L49" s="88" t="s">
+      <c r="L49" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="M49" s="88" t="s">
+      <c r="M49" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="N49" s="88" t="s">
+      <c r="N49" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="O49" s="88" t="s">
+      <c r="O49" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="P49" s="88"/>
+      <c r="P49" s="81"/>
       <c r="Q49" s="21"/>
       <c r="R49" s="21"/>
       <c r="S49" s="21"/>
@@ -5616,254 +5653,254 @@
       <c r="X49" s="21"/>
     </row>
     <row r="50" spans="1:24" ht="74.25" customHeight="1">
-      <c r="A50" s="79" t="s">
+      <c r="A50" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="B50" s="80" t="s">
+      <c r="B50" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="C50" s="81" t="s">
+      <c r="C50" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="D50" s="91" t="s">
+      <c r="D50" s="84" t="s">
         <v>244</v>
       </c>
-      <c r="E50" s="91" t="s">
+      <c r="E50" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="F50" s="92" t="s">
+      <c r="F50" s="85" t="s">
         <v>246</v>
       </c>
-      <c r="G50" s="92" t="s">
+      <c r="G50" s="85" t="s">
         <v>247</v>
       </c>
-      <c r="H50" s="93" t="s">
+      <c r="H50" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="I50" s="85">
+      <c r="I50" s="78">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J50" s="86">
+      <c r="J50" s="79">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K50" s="87" t="s">
+      <c r="K50" s="80" t="s">
         <v>248</v>
       </c>
-      <c r="L50" s="88" t="s">
+      <c r="L50" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="M50" s="87" t="s">
+      <c r="M50" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="N50" s="87" t="s">
+      <c r="N50" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="O50" s="87" t="s">
+      <c r="O50" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="P50" s="87"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
+      <c r="P50" s="80"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="31"/>
     </row>
     <row r="51" spans="1:24" ht="74.25" customHeight="1">
-      <c r="A51" s="94" t="s">
+      <c r="A51" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="B51" s="80" t="s">
+      <c r="B51" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="C51" s="81" t="s">
+      <c r="C51" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="87" t="s">
+      <c r="D51" s="80" t="s">
         <v>250</v>
       </c>
-      <c r="E51" s="87" t="s">
+      <c r="E51" s="80" t="s">
         <v>251</v>
       </c>
-      <c r="F51" s="95" t="s">
+      <c r="F51" s="88" t="s">
         <v>206</v>
       </c>
-      <c r="G51" s="95" t="s">
+      <c r="G51" s="88" t="s">
         <v>252</v>
       </c>
-      <c r="H51" s="90" t="s">
+      <c r="H51" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="I51" s="85">
+      <c r="I51" s="78">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J51" s="86">
+      <c r="J51" s="79">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K51" s="96" t="s">
+      <c r="K51" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="L51" s="88" t="s">
+      <c r="L51" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="M51" s="96" t="s">
+      <c r="M51" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="N51" s="96" t="s">
+      <c r="N51" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="O51" s="96" t="s">
+      <c r="O51" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="P51" s="96"/>
-      <c r="Q51" s="136"/>
-      <c r="R51" s="136"/>
-      <c r="S51" s="136"/>
-      <c r="T51" s="136"/>
-      <c r="U51" s="136"/>
-      <c r="V51" s="136"/>
-      <c r="W51" s="136"/>
-      <c r="X51" s="136"/>
+      <c r="P51" s="89"/>
+      <c r="Q51" s="129"/>
+      <c r="R51" s="129"/>
+      <c r="S51" s="129"/>
+      <c r="T51" s="129"/>
+      <c r="U51" s="129"/>
+      <c r="V51" s="129"/>
+      <c r="W51" s="129"/>
+      <c r="X51" s="129"/>
     </row>
     <row r="52" spans="1:24" ht="117" customHeight="1">
-      <c r="A52" s="94" t="s">
+      <c r="A52" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="B52" s="80" t="s">
+      <c r="B52" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="C52" s="81" t="s">
+      <c r="C52" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="D52" s="87" t="s">
+      <c r="D52" s="80" t="s">
         <v>254</v>
       </c>
-      <c r="E52" s="97" t="s">
+      <c r="E52" s="90" t="s">
         <v>255</v>
       </c>
-      <c r="F52" s="98" t="s">
+      <c r="F52" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="G52" s="98" t="s">
+      <c r="G52" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="H52" s="90"/>
-      <c r="I52" s="99"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="96"/>
-      <c r="L52" s="88" t="s">
+      <c r="H52" s="83"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="81" t="s">
         <v>256</v>
       </c>
-      <c r="M52" s="96"/>
-      <c r="N52" s="96"/>
-      <c r="O52" s="96"/>
-      <c r="P52" s="96"/>
-      <c r="Q52" s="136"/>
-      <c r="R52" s="136"/>
-      <c r="S52" s="136"/>
-      <c r="T52" s="136"/>
-      <c r="U52" s="136"/>
-      <c r="V52" s="136"/>
-      <c r="W52" s="136"/>
-      <c r="X52" s="136"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="129"/>
+      <c r="R52" s="129"/>
+      <c r="S52" s="129"/>
+      <c r="T52" s="129"/>
+      <c r="U52" s="129"/>
+      <c r="V52" s="129"/>
+      <c r="W52" s="129"/>
+      <c r="X52" s="129"/>
     </row>
     <row r="53" spans="1:24" s="5" customFormat="1" ht="80.25" customHeight="1">
-      <c r="A53" s="101" t="s">
+      <c r="A53" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="B53" s="80" t="s">
+      <c r="B53" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="C53" s="90" t="s">
+      <c r="C53" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="D53" s="90" t="s">
+      <c r="D53" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="E53" s="90" t="s">
+      <c r="E53" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="F53" s="80" t="s">
+      <c r="F53" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="G53" s="80" t="s">
+      <c r="G53" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="H53" s="90" t="s">
+      <c r="H53" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="I53" s="90">
+      <c r="I53" s="83">
         <v>4</v>
       </c>
-      <c r="J53" s="80">
+      <c r="J53" s="73">
         <v>2</v>
       </c>
-      <c r="K53" s="90" t="s">
+      <c r="K53" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="L53" s="90" t="s">
+      <c r="L53" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="M53" s="90" t="s">
+      <c r="M53" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="N53" s="90" t="s">
+      <c r="N53" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="O53" s="90" t="s">
+      <c r="O53" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="P53" s="90"/>
+      <c r="P53" s="83"/>
     </row>
     <row r="54" spans="1:24" ht="74.25" customHeight="1">
-      <c r="A54" s="89" t="s">
+      <c r="A54" s="82" t="s">
         <v>262</v>
       </c>
-      <c r="B54" s="80" t="s">
+      <c r="B54" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="C54" s="81" t="s">
+      <c r="C54" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="D54" s="90" t="s">
+      <c r="D54" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="E54" s="90" t="s">
+      <c r="E54" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="F54" s="80" t="s">
+      <c r="F54" s="73" t="s">
         <v>265</v>
       </c>
-      <c r="G54" s="80" t="s">
+      <c r="G54" s="73" t="s">
         <v>266</v>
       </c>
-      <c r="H54" s="102" t="s">
+      <c r="H54" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="I54" s="85">
+      <c r="I54" s="78">
         <v>31.200000000000003</v>
       </c>
-      <c r="J54" s="86">
+      <c r="J54" s="79">
         <v>7.8000000000000007</v>
       </c>
-      <c r="K54" s="88" t="s">
+      <c r="K54" s="81" t="s">
         <v>248</v>
       </c>
-      <c r="L54" s="88" t="s">
+      <c r="L54" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="M54" s="88" t="s">
+      <c r="M54" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="N54" s="88" t="s">
+      <c r="N54" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="O54" s="88" t="s">
+      <c r="O54" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="P54" s="88"/>
+      <c r="P54" s="81"/>
       <c r="Q54" s="21"/>
       <c r="R54" s="21"/>
       <c r="S54" s="21"/>
@@ -5874,106 +5911,106 @@
       <c r="X54" s="21"/>
     </row>
     <row r="55" spans="1:24" ht="74.25" customHeight="1">
-      <c r="A55" s="79" t="s">
+      <c r="A55" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="B55" s="80" t="s">
+      <c r="B55" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="C55" s="81" t="s">
+      <c r="C55" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="91" t="s">
+      <c r="D55" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="E55" s="96" t="s">
+      <c r="E55" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="F55" s="92" t="s">
+      <c r="F55" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="G55" s="103" t="s">
+      <c r="G55" s="96" t="s">
         <v>270</v>
       </c>
-      <c r="H55" s="85" t="s">
+      <c r="H55" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="I55" s="104">
+      <c r="I55" s="97">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J55" s="86">
+      <c r="J55" s="79">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K55" s="85"/>
-      <c r="L55" s="87" t="s">
+      <c r="K55" s="78"/>
+      <c r="L55" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="M55" s="88" t="s">
+      <c r="M55" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="N55" s="87" t="s">
+      <c r="N55" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="O55" s="87" t="s">
+      <c r="O55" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="P55" s="87"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
+      <c r="P55" s="80"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="31"/>
+      <c r="V55" s="31"/>
+      <c r="W55" s="31"/>
+      <c r="X55" s="31"/>
     </row>
     <row r="56" spans="1:24" ht="74.25" customHeight="1">
-      <c r="A56" s="79" t="s">
+      <c r="A56" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="B56" s="80" t="s">
+      <c r="B56" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="81" t="s">
+      <c r="C56" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="90" t="s">
+      <c r="D56" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="E56" s="90" t="s">
+      <c r="E56" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="F56" s="80" t="s">
+      <c r="F56" s="73" t="s">
         <v>273</v>
       </c>
-      <c r="G56" s="80" t="s">
+      <c r="G56" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="H56" s="105" t="s">
+      <c r="H56" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="I56" s="85">
+      <c r="I56" s="78">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J56" s="86">
+      <c r="J56" s="79">
         <v>1.9200000000000004</v>
       </c>
-      <c r="K56" s="88" t="s">
+      <c r="K56" s="81" t="s">
         <v>275</v>
       </c>
-      <c r="L56" s="88" t="s">
+      <c r="L56" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="M56" s="88" t="s">
+      <c r="M56" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="N56" s="88" t="s">
+      <c r="N56" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="O56" s="88" t="s">
+      <c r="O56" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="P56" s="88"/>
+      <c r="P56" s="81"/>
       <c r="Q56" s="21"/>
       <c r="R56" s="21"/>
       <c r="S56" s="21"/>
@@ -5984,52 +6021,52 @@
       <c r="X56" s="21"/>
     </row>
     <row r="57" spans="1:24" ht="74.25" customHeight="1">
-      <c r="A57" s="175" t="s">
+      <c r="A57" s="139" t="s">
         <v>276</v>
       </c>
-      <c r="B57" s="168" t="s">
+      <c r="B57" s="132" t="s">
         <v>277</v>
       </c>
-      <c r="C57" s="169" t="s">
+      <c r="C57" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="176" t="s">
+      <c r="D57" s="140" t="s">
         <v>278</v>
       </c>
-      <c r="E57" s="108" t="s">
+      <c r="E57" s="101" t="s">
         <v>279</v>
       </c>
-      <c r="F57" s="109" t="s">
+      <c r="F57" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="G57" s="107" t="s">
+      <c r="G57" s="100" t="s">
         <v>281</v>
       </c>
-      <c r="H57" s="110" t="s">
+      <c r="H57" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="I57" s="111">
+      <c r="I57" s="104">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J57" s="112">
+      <c r="J57" s="105">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K57" s="113" t="s">
+      <c r="K57" s="106" t="s">
         <v>280</v>
       </c>
-      <c r="L57" s="113" t="s">
+      <c r="L57" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="M57" s="113" t="s">
+      <c r="M57" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="N57" s="113" t="s">
+      <c r="N57" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="O57" s="113" t="s">
+      <c r="O57" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="P57" s="113"/>
+      <c r="P57" s="106"/>
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
       <c r="S57" s="21"/>
@@ -6040,52 +6077,52 @@
       <c r="X57" s="21"/>
     </row>
     <row r="58" spans="1:24" ht="74.25" customHeight="1">
-      <c r="A58" s="114" t="s">
+      <c r="A58" s="107" t="s">
         <v>276</v>
       </c>
-      <c r="B58" s="115" t="s">
+      <c r="B58" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="C58" s="116" t="s">
+      <c r="C58" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="117" t="s">
+      <c r="D58" s="110" t="s">
         <v>282</v>
       </c>
-      <c r="E58" s="118" t="s">
+      <c r="E58" s="111" t="s">
         <v>283</v>
       </c>
-      <c r="F58" s="119" t="s">
+      <c r="F58" s="112" t="s">
         <v>284</v>
       </c>
-      <c r="G58" s="120" t="s">
+      <c r="G58" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="H58" s="121" t="s">
+      <c r="H58" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="I58" s="112">
+      <c r="I58" s="105">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J58" s="122">
+      <c r="J58" s="115">
         <v>1.9200000000000004</v>
       </c>
-      <c r="K58" s="123" t="s">
+      <c r="K58" s="116" t="s">
         <v>248</v>
       </c>
-      <c r="L58" s="123" t="s">
+      <c r="L58" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="M58" s="123" t="s">
+      <c r="M58" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="N58" s="123" t="s">
+      <c r="N58" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="O58" s="123" t="s">
+      <c r="O58" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="P58" s="123"/>
+      <c r="P58" s="116"/>
       <c r="Q58" s="21"/>
       <c r="R58" s="21"/>
       <c r="S58" s="21"/>
@@ -6096,1217 +6133,1204 @@
       <c r="X58" s="21"/>
     </row>
     <row r="59" spans="1:24" ht="74.25" customHeight="1">
-      <c r="A59" s="106" t="s">
+      <c r="A59" s="99" t="s">
         <v>276</v>
       </c>
-      <c r="B59" s="107" t="s">
+      <c r="B59" s="100" t="s">
         <v>277</v>
       </c>
-      <c r="C59" s="124" t="s">
+      <c r="C59" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="D59" s="125" t="s">
+      <c r="D59" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="E59" s="125" t="s">
+      <c r="E59" s="118" t="s">
         <v>287</v>
       </c>
-      <c r="F59" s="125" t="s">
+      <c r="F59" s="118" t="s">
         <v>288</v>
       </c>
-      <c r="G59" s="125" t="s">
+      <c r="G59" s="118" t="s">
         <v>289</v>
       </c>
-      <c r="H59" s="107" t="s">
+      <c r="H59" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="I59" s="126">
+      <c r="I59" s="119">
         <v>6.4</v>
       </c>
-      <c r="J59" s="126">
+      <c r="J59" s="119">
         <v>1.6</v>
       </c>
-      <c r="K59" s="127" t="s">
+      <c r="K59" s="120" t="s">
         <v>288</v>
       </c>
-      <c r="L59" s="128" t="s">
+      <c r="L59" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="M59" s="127" t="s">
+      <c r="M59" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="N59" s="127" t="s">
+      <c r="N59" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="O59" s="127" t="s">
+      <c r="O59" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="P59" s="127"/>
-      <c r="Q59" s="136"/>
-      <c r="R59" s="136"/>
-      <c r="S59" s="136"/>
-      <c r="T59" s="136"/>
-      <c r="U59" s="136"/>
-      <c r="V59" s="136"/>
-      <c r="W59" s="136"/>
-      <c r="X59" s="136"/>
+      <c r="P59" s="120"/>
+      <c r="Q59" s="129"/>
+      <c r="R59" s="129"/>
+      <c r="S59" s="129"/>
+      <c r="T59" s="129"/>
+      <c r="U59" s="129"/>
+      <c r="V59" s="129"/>
+      <c r="W59" s="129"/>
+      <c r="X59" s="129"/>
     </row>
     <row r="60" spans="1:24" ht="74.25" customHeight="1">
-      <c r="A60" s="106" t="s">
+      <c r="A60" s="99" t="s">
         <v>290</v>
       </c>
-      <c r="B60" s="107" t="s">
+      <c r="B60" s="100" t="s">
         <v>277</v>
       </c>
-      <c r="C60" s="124" t="s">
+      <c r="C60" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="129" t="s">
+      <c r="D60" s="122" t="s">
         <v>291</v>
       </c>
-      <c r="E60" s="129" t="s">
+      <c r="E60" s="122" t="s">
         <v>292</v>
       </c>
-      <c r="F60" s="129" t="s">
+      <c r="F60" s="122" t="s">
         <v>293</v>
       </c>
-      <c r="G60" s="129" t="s">
+      <c r="G60" s="122" t="s">
         <v>294</v>
       </c>
-      <c r="H60" s="130" t="s">
+      <c r="H60" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="I60" s="126">
+      <c r="I60" s="119">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J60" s="126">
+      <c r="J60" s="119">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K60" s="125" t="s">
+      <c r="K60" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="L60" s="128" t="s">
+      <c r="L60" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="M60" s="125" t="s">
+      <c r="M60" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="N60" s="125" t="s">
+      <c r="N60" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="O60" s="125" t="s">
+      <c r="O60" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="P60" s="125"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
+      <c r="P60" s="118"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="31"/>
+      <c r="U60" s="31"/>
+      <c r="V60" s="31"/>
+      <c r="W60" s="31"/>
+      <c r="X60" s="31"/>
     </row>
     <row r="61" spans="1:24" ht="74.25" customHeight="1">
-      <c r="A61" s="106" t="s">
+      <c r="A61" s="99" t="s">
         <v>290</v>
       </c>
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="100" t="s">
         <v>277</v>
       </c>
-      <c r="C61" s="124" t="s">
+      <c r="C61" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="131" t="s">
+      <c r="D61" s="124" t="s">
         <v>296</v>
       </c>
-      <c r="E61" s="131" t="s">
+      <c r="E61" s="124" t="s">
         <v>297</v>
       </c>
-      <c r="F61" s="131" t="s">
+      <c r="F61" s="124" t="s">
         <v>298</v>
       </c>
-      <c r="G61" s="131" t="s">
+      <c r="G61" s="124" t="s">
         <v>299</v>
       </c>
-      <c r="H61" s="132" t="s">
+      <c r="H61" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="I61" s="126">
+      <c r="I61" s="119">
         <v>9.6000000000000014</v>
       </c>
-      <c r="J61" s="126">
+      <c r="J61" s="119">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K61" s="125" t="s">
+      <c r="K61" s="118" t="s">
         <v>300</v>
       </c>
-      <c r="L61" s="128" t="s">
+      <c r="L61" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="M61" s="125" t="s">
+      <c r="M61" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="N61" s="125" t="s">
+      <c r="N61" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="O61" s="125" t="s">
+      <c r="O61" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="P61" s="125"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
+      <c r="P61" s="118"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="31"/>
+      <c r="V61" s="31"/>
+      <c r="W61" s="31"/>
+      <c r="X61" s="31"/>
     </row>
     <row r="62" spans="1:24" s="5" customFormat="1" ht="97.5" customHeight="1">
-      <c r="A62" s="114" t="s">
+      <c r="A62" s="107" t="s">
         <v>290</v>
       </c>
-      <c r="B62" s="115" t="s">
+      <c r="B62" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="C62" s="115" t="s">
+      <c r="C62" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="D62" s="115" t="s">
+      <c r="D62" s="108" t="s">
         <v>301</v>
       </c>
-      <c r="E62" s="115" t="s">
+      <c r="E62" s="108" t="s">
         <v>302</v>
       </c>
-      <c r="F62" s="115" t="s">
+      <c r="F62" s="108" t="s">
         <v>303</v>
       </c>
-      <c r="G62" s="115" t="s">
+      <c r="G62" s="108" t="s">
         <v>304</v>
       </c>
-      <c r="H62" s="115" t="s">
+      <c r="H62" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="I62" s="115">
+      <c r="I62" s="108">
         <v>10</v>
       </c>
-      <c r="J62" s="115">
+      <c r="J62" s="108">
         <v>2</v>
       </c>
-      <c r="K62" s="115" t="s">
+      <c r="K62" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="L62" s="115" t="s">
+      <c r="L62" s="108" t="s">
         <v>261</v>
       </c>
-      <c r="M62" s="115" t="s">
+      <c r="M62" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="N62" s="115" t="s">
+      <c r="N62" s="108" t="s">
         <v>228</v>
       </c>
-      <c r="O62" s="115" t="s">
+      <c r="O62" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="P62" s="115"/>
+      <c r="P62" s="108"/>
     </row>
     <row r="63" spans="1:24" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A63" s="133"/>
-      <c r="C63" s="134"/>
-      <c r="H63" s="135"/>
+      <c r="A63" s="126"/>
+      <c r="C63" s="127"/>
+      <c r="H63" s="128"/>
     </row>
     <row r="64" spans="1:24" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A64" s="133"/>
-      <c r="C64" s="134"/>
-      <c r="H64" s="135"/>
+      <c r="A64" s="126"/>
+      <c r="C64" s="127"/>
+      <c r="H64" s="128"/>
     </row>
     <row r="65" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A65" s="133"/>
-      <c r="C65" s="134"/>
-      <c r="H65" s="135"/>
+      <c r="A65" s="126"/>
+      <c r="C65" s="127"/>
+      <c r="H65" s="128"/>
     </row>
     <row r="66" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A66" s="133"/>
-      <c r="C66" s="134"/>
-      <c r="H66" s="135"/>
+      <c r="A66" s="126"/>
+      <c r="C66" s="127"/>
+      <c r="H66" s="128"/>
     </row>
     <row r="67" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A67" s="133"/>
-      <c r="C67" s="134"/>
-      <c r="H67" s="135"/>
+      <c r="A67" s="126"/>
+      <c r="C67" s="127"/>
+      <c r="H67" s="128"/>
     </row>
     <row r="68" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A68" s="133"/>
-      <c r="C68" s="134"/>
-      <c r="H68" s="135"/>
+      <c r="A68" s="126"/>
+      <c r="C68" s="127"/>
+      <c r="H68" s="128"/>
     </row>
     <row r="69" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A69" s="133"/>
-      <c r="C69" s="134"/>
-      <c r="H69" s="135"/>
+      <c r="A69" s="126"/>
+      <c r="C69" s="127"/>
+      <c r="H69" s="128"/>
     </row>
     <row r="70" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A70" s="133"/>
-      <c r="C70" s="134"/>
-      <c r="H70" s="135"/>
+      <c r="A70" s="126"/>
+      <c r="C70" s="127"/>
+      <c r="H70" s="128"/>
     </row>
     <row r="71" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A71" s="133"/>
-      <c r="C71" s="134"/>
-      <c r="H71" s="135"/>
+      <c r="A71" s="126"/>
+      <c r="C71" s="127"/>
+      <c r="H71" s="128"/>
     </row>
     <row r="72" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A72" s="133"/>
-      <c r="C72" s="134"/>
-      <c r="H72" s="135"/>
+      <c r="A72" s="126"/>
+      <c r="C72" s="127"/>
+      <c r="H72" s="128"/>
     </row>
     <row r="73" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A73" s="133"/>
-      <c r="C73" s="134"/>
-      <c r="H73" s="135"/>
+      <c r="A73" s="126"/>
+      <c r="C73" s="127"/>
+      <c r="H73" s="128"/>
     </row>
     <row r="74" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A74" s="133"/>
-      <c r="C74" s="134"/>
-      <c r="H74" s="135"/>
+      <c r="A74" s="126"/>
+      <c r="C74" s="127"/>
+      <c r="H74" s="128"/>
     </row>
     <row r="75" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A75" s="133"/>
-      <c r="C75" s="134"/>
-      <c r="H75" s="135"/>
+      <c r="A75" s="126"/>
+      <c r="C75" s="127"/>
+      <c r="H75" s="128"/>
     </row>
     <row r="76" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A76" s="133"/>
-      <c r="C76" s="134"/>
-      <c r="H76" s="135"/>
+      <c r="A76" s="126"/>
+      <c r="C76" s="127"/>
+      <c r="H76" s="128"/>
     </row>
     <row r="77" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A77" s="133"/>
-      <c r="C77" s="134"/>
-      <c r="H77" s="135"/>
+      <c r="A77" s="126"/>
+      <c r="C77" s="127"/>
+      <c r="H77" s="128"/>
     </row>
     <row r="78" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A78" s="133"/>
-      <c r="C78" s="134"/>
-      <c r="H78" s="135"/>
+      <c r="A78" s="126"/>
+      <c r="C78" s="127"/>
+      <c r="H78" s="128"/>
     </row>
     <row r="79" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A79" s="133"/>
-      <c r="C79" s="134"/>
-      <c r="H79" s="135"/>
+      <c r="A79" s="126"/>
+      <c r="C79" s="127"/>
+      <c r="H79" s="128"/>
     </row>
     <row r="80" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A80" s="133"/>
-      <c r="C80" s="134"/>
-      <c r="H80" s="135"/>
+      <c r="A80" s="126"/>
+      <c r="C80" s="127"/>
+      <c r="H80" s="128"/>
     </row>
     <row r="81" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A81" s="133"/>
-      <c r="C81" s="134"/>
-      <c r="H81" s="135"/>
+      <c r="A81" s="126"/>
+      <c r="C81" s="127"/>
+      <c r="H81" s="128"/>
     </row>
     <row r="82" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A82" s="133"/>
-      <c r="C82" s="134"/>
-      <c r="H82" s="135"/>
+      <c r="A82" s="126"/>
+      <c r="C82" s="127"/>
+      <c r="H82" s="128"/>
     </row>
     <row r="83" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A83" s="133"/>
-      <c r="C83" s="134"/>
-      <c r="H83" s="135"/>
+      <c r="A83" s="126"/>
+      <c r="C83" s="127"/>
+      <c r="H83" s="128"/>
     </row>
     <row r="84" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A84" s="133"/>
-      <c r="C84" s="134"/>
-      <c r="H84" s="135"/>
+      <c r="A84" s="126"/>
+      <c r="C84" s="127"/>
+      <c r="H84" s="128"/>
     </row>
     <row r="85" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A85" s="133"/>
-      <c r="C85" s="134"/>
-      <c r="H85" s="135"/>
+      <c r="A85" s="126"/>
+      <c r="C85" s="127"/>
+      <c r="H85" s="128"/>
     </row>
     <row r="86" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A86" s="133"/>
-      <c r="C86" s="134"/>
-      <c r="H86" s="135"/>
+      <c r="A86" s="126"/>
+      <c r="C86" s="127"/>
+      <c r="H86" s="128"/>
     </row>
     <row r="87" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A87" s="133"/>
-      <c r="C87" s="134"/>
-      <c r="H87" s="135"/>
+      <c r="A87" s="126"/>
+      <c r="C87" s="127"/>
+      <c r="H87" s="128"/>
     </row>
     <row r="88" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A88" s="133"/>
-      <c r="C88" s="134"/>
-      <c r="H88" s="135"/>
+      <c r="A88" s="126"/>
+      <c r="C88" s="127"/>
+      <c r="H88" s="128"/>
     </row>
     <row r="89" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A89" s="133"/>
-      <c r="C89" s="134"/>
-      <c r="H89" s="135"/>
+      <c r="A89" s="126"/>
+      <c r="C89" s="127"/>
+      <c r="H89" s="128"/>
     </row>
     <row r="90" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A90" s="133"/>
-      <c r="C90" s="134"/>
-      <c r="H90" s="135"/>
+      <c r="A90" s="126"/>
+      <c r="C90" s="127"/>
+      <c r="H90" s="128"/>
     </row>
     <row r="91" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A91" s="133"/>
-      <c r="C91" s="134"/>
-      <c r="H91" s="135"/>
+      <c r="A91" s="126"/>
+      <c r="C91" s="127"/>
+      <c r="H91" s="128"/>
     </row>
     <row r="92" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A92" s="133"/>
-      <c r="C92" s="134"/>
-      <c r="H92" s="135"/>
+      <c r="A92" s="126"/>
+      <c r="C92" s="127"/>
+      <c r="H92" s="128"/>
     </row>
     <row r="93" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A93" s="133"/>
-      <c r="C93" s="134"/>
-      <c r="H93" s="135"/>
+      <c r="A93" s="126"/>
+      <c r="C93" s="127"/>
+      <c r="H93" s="128"/>
     </row>
     <row r="94" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A94" s="133"/>
-      <c r="C94" s="134"/>
-      <c r="H94" s="135"/>
+      <c r="A94" s="126"/>
+      <c r="C94" s="127"/>
+      <c r="H94" s="128"/>
     </row>
     <row r="95" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A95" s="133"/>
-      <c r="C95" s="134"/>
-      <c r="H95" s="135"/>
+      <c r="A95" s="126"/>
+      <c r="C95" s="127"/>
+      <c r="H95" s="128"/>
     </row>
     <row r="96" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A96" s="133"/>
-      <c r="C96" s="134"/>
-      <c r="H96" s="135"/>
+      <c r="A96" s="126"/>
+      <c r="C96" s="127"/>
+      <c r="H96" s="128"/>
     </row>
     <row r="97" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A97" s="133"/>
-      <c r="C97" s="134"/>
-      <c r="H97" s="135"/>
+      <c r="A97" s="126"/>
+      <c r="C97" s="127"/>
+      <c r="H97" s="128"/>
     </row>
     <row r="98" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A98" s="133"/>
-      <c r="C98" s="134"/>
-      <c r="H98" s="135"/>
+      <c r="A98" s="126"/>
+      <c r="C98" s="127"/>
+      <c r="H98" s="128"/>
     </row>
     <row r="99" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A99" s="133"/>
-      <c r="C99" s="134"/>
-      <c r="H99" s="135"/>
+      <c r="A99" s="126"/>
+      <c r="C99" s="127"/>
+      <c r="H99" s="128"/>
     </row>
     <row r="100" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A100" s="133"/>
-      <c r="C100" s="134"/>
-      <c r="H100" s="135"/>
+      <c r="A100" s="126"/>
+      <c r="C100" s="127"/>
+      <c r="H100" s="128"/>
     </row>
     <row r="101" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A101" s="133"/>
-      <c r="C101" s="134"/>
-      <c r="H101" s="135"/>
+      <c r="A101" s="126"/>
+      <c r="C101" s="127"/>
+      <c r="H101" s="128"/>
     </row>
     <row r="102" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A102" s="133"/>
-      <c r="C102" s="134"/>
-      <c r="H102" s="135"/>
+      <c r="A102" s="126"/>
+      <c r="C102" s="127"/>
+      <c r="H102" s="128"/>
     </row>
     <row r="103" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A103" s="133"/>
-      <c r="C103" s="134"/>
-      <c r="H103" s="135"/>
+      <c r="A103" s="126"/>
+      <c r="C103" s="127"/>
+      <c r="H103" s="128"/>
     </row>
     <row r="104" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A104" s="133"/>
-      <c r="C104" s="134"/>
-      <c r="H104" s="135"/>
+      <c r="A104" s="126"/>
+      <c r="C104" s="127"/>
+      <c r="H104" s="128"/>
     </row>
     <row r="105" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A105" s="133"/>
-      <c r="C105" s="134"/>
-      <c r="H105" s="135"/>
+      <c r="A105" s="126"/>
+      <c r="C105" s="127"/>
+      <c r="H105" s="128"/>
     </row>
     <row r="106" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A106" s="133"/>
-      <c r="C106" s="134"/>
-      <c r="H106" s="135"/>
+      <c r="A106" s="126"/>
+      <c r="C106" s="127"/>
+      <c r="H106" s="128"/>
     </row>
     <row r="107" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A107" s="133"/>
-      <c r="C107" s="134"/>
-      <c r="H107" s="135"/>
+      <c r="A107" s="126"/>
+      <c r="C107" s="127"/>
+      <c r="H107" s="128"/>
     </row>
     <row r="108" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A108" s="133"/>
-      <c r="C108" s="134"/>
-      <c r="H108" s="135"/>
+      <c r="A108" s="126"/>
+      <c r="C108" s="127"/>
+      <c r="H108" s="128"/>
     </row>
     <row r="109" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A109" s="133"/>
-      <c r="C109" s="134"/>
-      <c r="H109" s="135"/>
+      <c r="A109" s="126"/>
+      <c r="C109" s="127"/>
+      <c r="H109" s="128"/>
     </row>
     <row r="110" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A110" s="133"/>
-      <c r="C110" s="134"/>
-      <c r="H110" s="135"/>
+      <c r="A110" s="126"/>
+      <c r="C110" s="127"/>
+      <c r="H110" s="128"/>
     </row>
     <row r="111" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A111" s="133"/>
-      <c r="C111" s="134"/>
-      <c r="H111" s="135"/>
+      <c r="A111" s="126"/>
+      <c r="C111" s="127"/>
+      <c r="H111" s="128"/>
     </row>
     <row r="112" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A112" s="133"/>
-      <c r="C112" s="134"/>
-      <c r="H112" s="135"/>
+      <c r="A112" s="126"/>
+      <c r="C112" s="127"/>
+      <c r="H112" s="128"/>
     </row>
     <row r="113" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A113" s="133"/>
-      <c r="C113" s="134"/>
-      <c r="H113" s="135"/>
+      <c r="A113" s="126"/>
+      <c r="C113" s="127"/>
+      <c r="H113" s="128"/>
     </row>
     <row r="114" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A114" s="133"/>
-      <c r="C114" s="134"/>
-      <c r="H114" s="135"/>
+      <c r="A114" s="126"/>
+      <c r="C114" s="127"/>
+      <c r="H114" s="128"/>
     </row>
     <row r="115" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A115" s="133"/>
-      <c r="C115" s="134"/>
-      <c r="H115" s="135"/>
+      <c r="A115" s="126"/>
+      <c r="C115" s="127"/>
+      <c r="H115" s="128"/>
     </row>
     <row r="116" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A116" s="133"/>
-      <c r="C116" s="134"/>
-      <c r="H116" s="135"/>
+      <c r="A116" s="126"/>
+      <c r="C116" s="127"/>
+      <c r="H116" s="128"/>
     </row>
     <row r="117" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A117" s="133"/>
-      <c r="C117" s="134"/>
-      <c r="H117" s="135"/>
+      <c r="A117" s="126"/>
+      <c r="C117" s="127"/>
+      <c r="H117" s="128"/>
     </row>
     <row r="118" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A118" s="133"/>
-      <c r="C118" s="134"/>
-      <c r="H118" s="135"/>
+      <c r="A118" s="126"/>
+      <c r="C118" s="127"/>
+      <c r="H118" s="128"/>
     </row>
     <row r="119" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A119" s="133"/>
-      <c r="C119" s="134"/>
-      <c r="H119" s="135"/>
+      <c r="A119" s="126"/>
+      <c r="C119" s="127"/>
+      <c r="H119" s="128"/>
     </row>
     <row r="120" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A120" s="133"/>
-      <c r="C120" s="134"/>
-      <c r="H120" s="135"/>
+      <c r="A120" s="126"/>
+      <c r="C120" s="127"/>
+      <c r="H120" s="128"/>
     </row>
     <row r="121" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A121" s="133"/>
-      <c r="C121" s="134"/>
-      <c r="H121" s="135"/>
+      <c r="A121" s="126"/>
+      <c r="C121" s="127"/>
+      <c r="H121" s="128"/>
     </row>
     <row r="122" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A122" s="133"/>
-      <c r="C122" s="134"/>
-      <c r="H122" s="135"/>
+      <c r="A122" s="126"/>
+      <c r="C122" s="127"/>
+      <c r="H122" s="128"/>
     </row>
     <row r="123" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A123" s="133"/>
-      <c r="C123" s="134"/>
-      <c r="H123" s="135"/>
+      <c r="A123" s="126"/>
+      <c r="C123" s="127"/>
+      <c r="H123" s="128"/>
     </row>
     <row r="124" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A124" s="133"/>
-      <c r="C124" s="134"/>
-      <c r="H124" s="135"/>
+      <c r="A124" s="126"/>
+      <c r="C124" s="127"/>
+      <c r="H124" s="128"/>
     </row>
     <row r="125" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A125" s="133"/>
-      <c r="C125" s="134"/>
-      <c r="H125" s="135"/>
+      <c r="A125" s="126"/>
+      <c r="C125" s="127"/>
+      <c r="H125" s="128"/>
     </row>
     <row r="126" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A126" s="133"/>
-      <c r="C126" s="134"/>
-      <c r="H126" s="135"/>
+      <c r="A126" s="126"/>
+      <c r="C126" s="127"/>
+      <c r="H126" s="128"/>
     </row>
     <row r="127" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A127" s="133"/>
-      <c r="C127" s="134"/>
-      <c r="H127" s="135"/>
+      <c r="A127" s="126"/>
+      <c r="C127" s="127"/>
+      <c r="H127" s="128"/>
     </row>
     <row r="128" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A128" s="133"/>
-      <c r="C128" s="134"/>
-      <c r="H128" s="135"/>
+      <c r="A128" s="126"/>
+      <c r="C128" s="127"/>
+      <c r="H128" s="128"/>
     </row>
     <row r="129" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A129" s="133"/>
-      <c r="C129" s="134"/>
-      <c r="H129" s="135"/>
+      <c r="A129" s="126"/>
+      <c r="C129" s="127"/>
+      <c r="H129" s="128"/>
     </row>
     <row r="130" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A130" s="133"/>
-      <c r="C130" s="134"/>
-      <c r="H130" s="135"/>
+      <c r="A130" s="126"/>
+      <c r="C130" s="127"/>
+      <c r="H130" s="128"/>
     </row>
     <row r="131" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A131" s="133"/>
-      <c r="C131" s="134"/>
-      <c r="H131" s="135"/>
+      <c r="A131" s="126"/>
+      <c r="C131" s="127"/>
+      <c r="H131" s="128"/>
     </row>
     <row r="132" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A132" s="133"/>
-      <c r="C132" s="134"/>
-      <c r="H132" s="135"/>
+      <c r="A132" s="126"/>
+      <c r="C132" s="127"/>
+      <c r="H132" s="128"/>
     </row>
     <row r="133" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A133" s="133"/>
-      <c r="C133" s="134"/>
-      <c r="H133" s="135"/>
+      <c r="A133" s="126"/>
+      <c r="C133" s="127"/>
+      <c r="H133" s="128"/>
     </row>
     <row r="134" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A134" s="133"/>
-      <c r="C134" s="134"/>
-      <c r="H134" s="135"/>
+      <c r="A134" s="126"/>
+      <c r="C134" s="127"/>
+      <c r="H134" s="128"/>
     </row>
     <row r="135" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A135" s="133"/>
-      <c r="C135" s="134"/>
-      <c r="H135" s="135"/>
+      <c r="A135" s="126"/>
+      <c r="C135" s="127"/>
+      <c r="H135" s="128"/>
     </row>
     <row r="136" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A136" s="133"/>
-      <c r="C136" s="134"/>
-      <c r="H136" s="135"/>
+      <c r="A136" s="126"/>
+      <c r="C136" s="127"/>
+      <c r="H136" s="128"/>
     </row>
     <row r="137" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A137" s="133"/>
-      <c r="C137" s="134"/>
-      <c r="H137" s="135"/>
+      <c r="A137" s="126"/>
+      <c r="C137" s="127"/>
+      <c r="H137" s="128"/>
     </row>
     <row r="138" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A138" s="133"/>
-      <c r="C138" s="134"/>
-      <c r="H138" s="135"/>
+      <c r="A138" s="126"/>
+      <c r="C138" s="127"/>
+      <c r="H138" s="128"/>
     </row>
     <row r="139" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A139" s="133"/>
-      <c r="C139" s="134"/>
-      <c r="H139" s="135"/>
+      <c r="A139" s="126"/>
+      <c r="C139" s="127"/>
+      <c r="H139" s="128"/>
     </row>
     <row r="140" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A140" s="133"/>
-      <c r="C140" s="134"/>
-      <c r="H140" s="135"/>
+      <c r="A140" s="126"/>
+      <c r="C140" s="127"/>
+      <c r="H140" s="128"/>
     </row>
     <row r="141" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A141" s="133"/>
-      <c r="C141" s="134"/>
-      <c r="H141" s="135"/>
+      <c r="A141" s="126"/>
+      <c r="C141" s="127"/>
+      <c r="H141" s="128"/>
     </row>
     <row r="142" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A142" s="133"/>
-      <c r="C142" s="134"/>
-      <c r="H142" s="135"/>
+      <c r="A142" s="126"/>
+      <c r="C142" s="127"/>
+      <c r="H142" s="128"/>
     </row>
     <row r="143" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A143" s="133"/>
-      <c r="C143" s="134"/>
-      <c r="H143" s="135"/>
+      <c r="A143" s="126"/>
+      <c r="C143" s="127"/>
+      <c r="H143" s="128"/>
     </row>
     <row r="144" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A144" s="133"/>
-      <c r="C144" s="134"/>
-      <c r="H144" s="135"/>
+      <c r="A144" s="126"/>
+      <c r="C144" s="127"/>
+      <c r="H144" s="128"/>
     </row>
     <row r="145" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A145" s="133"/>
-      <c r="C145" s="134"/>
-      <c r="H145" s="135"/>
+      <c r="A145" s="126"/>
+      <c r="C145" s="127"/>
+      <c r="H145" s="128"/>
     </row>
     <row r="146" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A146" s="133"/>
-      <c r="C146" s="134"/>
-      <c r="H146" s="135"/>
+      <c r="A146" s="126"/>
+      <c r="C146" s="127"/>
+      <c r="H146" s="128"/>
     </row>
     <row r="147" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A147" s="133"/>
-      <c r="C147" s="134"/>
-      <c r="H147" s="135"/>
+      <c r="A147" s="126"/>
+      <c r="C147" s="127"/>
+      <c r="H147" s="128"/>
     </row>
     <row r="148" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A148" s="133"/>
-      <c r="C148" s="134"/>
-      <c r="H148" s="135"/>
+      <c r="A148" s="126"/>
+      <c r="C148" s="127"/>
+      <c r="H148" s="128"/>
     </row>
     <row r="149" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A149" s="133"/>
-      <c r="C149" s="134"/>
-      <c r="H149" s="135"/>
+      <c r="A149" s="126"/>
+      <c r="C149" s="127"/>
+      <c r="H149" s="128"/>
     </row>
     <row r="150" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A150" s="133"/>
-      <c r="C150" s="134"/>
-      <c r="H150" s="135"/>
+      <c r="A150" s="126"/>
+      <c r="C150" s="127"/>
+      <c r="H150" s="128"/>
     </row>
     <row r="151" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A151" s="133"/>
-      <c r="C151" s="134"/>
-      <c r="H151" s="135"/>
+      <c r="A151" s="126"/>
+      <c r="C151" s="127"/>
+      <c r="H151" s="128"/>
     </row>
     <row r="152" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A152" s="133"/>
-      <c r="C152" s="134"/>
-      <c r="H152" s="135"/>
+      <c r="A152" s="126"/>
+      <c r="C152" s="127"/>
+      <c r="H152" s="128"/>
     </row>
     <row r="153" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A153" s="133"/>
-      <c r="C153" s="134"/>
-      <c r="H153" s="135"/>
+      <c r="A153" s="126"/>
+      <c r="C153" s="127"/>
+      <c r="H153" s="128"/>
     </row>
     <row r="154" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A154" s="133"/>
-      <c r="C154" s="134"/>
-      <c r="H154" s="135"/>
+      <c r="A154" s="126"/>
+      <c r="C154" s="127"/>
+      <c r="H154" s="128"/>
     </row>
     <row r="155" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A155" s="133"/>
-      <c r="C155" s="134"/>
-      <c r="H155" s="135"/>
+      <c r="A155" s="126"/>
+      <c r="C155" s="127"/>
+      <c r="H155" s="128"/>
     </row>
     <row r="156" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A156" s="133"/>
-      <c r="C156" s="134"/>
-      <c r="H156" s="135"/>
+      <c r="A156" s="126"/>
+      <c r="C156" s="127"/>
+      <c r="H156" s="128"/>
     </row>
     <row r="157" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A157" s="133"/>
-      <c r="C157" s="134"/>
-      <c r="H157" s="135"/>
+      <c r="A157" s="126"/>
+      <c r="C157" s="127"/>
+      <c r="H157" s="128"/>
     </row>
     <row r="158" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A158" s="133"/>
-      <c r="C158" s="134"/>
-      <c r="H158" s="135"/>
+      <c r="A158" s="126"/>
+      <c r="C158" s="127"/>
+      <c r="H158" s="128"/>
     </row>
     <row r="159" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A159" s="133"/>
-      <c r="C159" s="134"/>
-      <c r="H159" s="135"/>
+      <c r="A159" s="126"/>
+      <c r="C159" s="127"/>
+      <c r="H159" s="128"/>
     </row>
     <row r="160" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A160" s="133"/>
-      <c r="C160" s="134"/>
-      <c r="H160" s="135"/>
+      <c r="A160" s="126"/>
+      <c r="C160" s="127"/>
+      <c r="H160" s="128"/>
     </row>
     <row r="161" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A161" s="133"/>
-      <c r="C161" s="134"/>
-      <c r="H161" s="135"/>
+      <c r="A161" s="126"/>
+      <c r="C161" s="127"/>
+      <c r="H161" s="128"/>
     </row>
     <row r="162" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A162" s="133"/>
-      <c r="C162" s="134"/>
-      <c r="H162" s="135"/>
+      <c r="A162" s="126"/>
+      <c r="C162" s="127"/>
+      <c r="H162" s="128"/>
     </row>
     <row r="163" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A163" s="133"/>
-      <c r="C163" s="134"/>
-      <c r="H163" s="135"/>
+      <c r="A163" s="126"/>
+      <c r="C163" s="127"/>
+      <c r="H163" s="128"/>
     </row>
     <row r="164" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A164" s="133"/>
-      <c r="C164" s="134"/>
-      <c r="H164" s="135"/>
+      <c r="A164" s="126"/>
+      <c r="C164" s="127"/>
+      <c r="H164" s="128"/>
     </row>
     <row r="165" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A165" s="133"/>
-      <c r="C165" s="134"/>
-      <c r="H165" s="135"/>
+      <c r="A165" s="126"/>
+      <c r="C165" s="127"/>
+      <c r="H165" s="128"/>
     </row>
     <row r="166" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A166" s="133"/>
-      <c r="C166" s="134"/>
-      <c r="H166" s="135"/>
+      <c r="A166" s="126"/>
+      <c r="C166" s="127"/>
+      <c r="H166" s="128"/>
     </row>
     <row r="167" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A167" s="133"/>
-      <c r="C167" s="134"/>
-      <c r="H167" s="135"/>
+      <c r="A167" s="126"/>
+      <c r="C167" s="127"/>
+      <c r="H167" s="128"/>
     </row>
     <row r="168" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A168" s="133"/>
-      <c r="C168" s="134"/>
-      <c r="H168" s="135"/>
+      <c r="A168" s="126"/>
+      <c r="C168" s="127"/>
+      <c r="H168" s="128"/>
     </row>
     <row r="169" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A169" s="133"/>
-      <c r="C169" s="134"/>
-      <c r="H169" s="135"/>
+      <c r="A169" s="126"/>
+      <c r="C169" s="127"/>
+      <c r="H169" s="128"/>
     </row>
     <row r="170" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A170" s="133"/>
-      <c r="C170" s="134"/>
-      <c r="H170" s="135"/>
+      <c r="A170" s="126"/>
+      <c r="C170" s="127"/>
+      <c r="H170" s="128"/>
     </row>
     <row r="171" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A171" s="133"/>
-      <c r="C171" s="134"/>
-      <c r="H171" s="135"/>
+      <c r="A171" s="126"/>
+      <c r="C171" s="127"/>
+      <c r="H171" s="128"/>
     </row>
     <row r="172" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A172" s="133"/>
-      <c r="C172" s="134"/>
-      <c r="H172" s="135"/>
+      <c r="A172" s="126"/>
+      <c r="C172" s="127"/>
+      <c r="H172" s="128"/>
     </row>
     <row r="173" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A173" s="133"/>
-      <c r="C173" s="134"/>
-      <c r="H173" s="135"/>
+      <c r="A173" s="126"/>
+      <c r="C173" s="127"/>
+      <c r="H173" s="128"/>
     </row>
     <row r="174" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A174" s="133"/>
-      <c r="C174" s="134"/>
-      <c r="H174" s="135"/>
+      <c r="A174" s="126"/>
+      <c r="C174" s="127"/>
+      <c r="H174" s="128"/>
     </row>
     <row r="175" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A175" s="133"/>
-      <c r="C175" s="134"/>
-      <c r="H175" s="135"/>
+      <c r="A175" s="126"/>
+      <c r="C175" s="127"/>
+      <c r="H175" s="128"/>
     </row>
     <row r="176" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A176" s="133"/>
-      <c r="C176" s="134"/>
-      <c r="H176" s="135"/>
+      <c r="A176" s="126"/>
+      <c r="C176" s="127"/>
+      <c r="H176" s="128"/>
     </row>
     <row r="177" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A177" s="133"/>
-      <c r="C177" s="134"/>
-      <c r="H177" s="135"/>
+      <c r="A177" s="126"/>
+      <c r="C177" s="127"/>
+      <c r="H177" s="128"/>
     </row>
     <row r="178" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A178" s="133"/>
-      <c r="C178" s="134"/>
-      <c r="H178" s="135"/>
+      <c r="A178" s="126"/>
+      <c r="C178" s="127"/>
+      <c r="H178" s="128"/>
     </row>
     <row r="179" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A179" s="133"/>
-      <c r="C179" s="134"/>
-      <c r="H179" s="135"/>
+      <c r="A179" s="126"/>
+      <c r="C179" s="127"/>
+      <c r="H179" s="128"/>
     </row>
     <row r="180" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A180" s="133"/>
-      <c r="C180" s="134"/>
-      <c r="H180" s="135"/>
+      <c r="A180" s="126"/>
+      <c r="C180" s="127"/>
+      <c r="H180" s="128"/>
     </row>
     <row r="181" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A181" s="133"/>
-      <c r="C181" s="134"/>
-      <c r="H181" s="135"/>
+      <c r="A181" s="126"/>
+      <c r="C181" s="127"/>
+      <c r="H181" s="128"/>
     </row>
     <row r="182" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A182" s="133"/>
-      <c r="C182" s="134"/>
-      <c r="H182" s="135"/>
+      <c r="A182" s="126"/>
+      <c r="C182" s="127"/>
+      <c r="H182" s="128"/>
     </row>
     <row r="183" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A183" s="133"/>
-      <c r="C183" s="134"/>
-      <c r="H183" s="135"/>
+      <c r="A183" s="126"/>
+      <c r="C183" s="127"/>
+      <c r="H183" s="128"/>
     </row>
     <row r="184" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A184" s="133"/>
-      <c r="C184" s="134"/>
-      <c r="H184" s="135"/>
+      <c r="A184" s="126"/>
+      <c r="C184" s="127"/>
+      <c r="H184" s="128"/>
     </row>
     <row r="185" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A185" s="133"/>
-      <c r="C185" s="134"/>
-      <c r="H185" s="135"/>
+      <c r="A185" s="126"/>
+      <c r="C185" s="127"/>
+      <c r="H185" s="128"/>
     </row>
     <row r="186" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A186" s="133"/>
-      <c r="C186" s="134"/>
-      <c r="H186" s="135"/>
+      <c r="A186" s="126"/>
+      <c r="C186" s="127"/>
+      <c r="H186" s="128"/>
     </row>
     <row r="187" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A187" s="133"/>
-      <c r="C187" s="134"/>
-      <c r="H187" s="135"/>
+      <c r="A187" s="126"/>
+      <c r="C187" s="127"/>
+      <c r="H187" s="128"/>
     </row>
     <row r="188" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A188" s="133"/>
-      <c r="C188" s="134"/>
-      <c r="H188" s="135"/>
+      <c r="A188" s="126"/>
+      <c r="C188" s="127"/>
+      <c r="H188" s="128"/>
     </row>
     <row r="189" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A189" s="133"/>
-      <c r="C189" s="134"/>
-      <c r="H189" s="135"/>
+      <c r="A189" s="126"/>
+      <c r="C189" s="127"/>
+      <c r="H189" s="128"/>
     </row>
     <row r="190" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A190" s="133"/>
-      <c r="C190" s="134"/>
-      <c r="H190" s="135"/>
+      <c r="A190" s="126"/>
+      <c r="C190" s="127"/>
+      <c r="H190" s="128"/>
     </row>
     <row r="191" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A191" s="133"/>
-      <c r="C191" s="134"/>
-      <c r="H191" s="135"/>
+      <c r="A191" s="126"/>
+      <c r="C191" s="127"/>
+      <c r="H191" s="128"/>
     </row>
     <row r="192" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A192" s="133"/>
-      <c r="C192" s="134"/>
-      <c r="H192" s="135"/>
+      <c r="A192" s="126"/>
+      <c r="C192" s="127"/>
+      <c r="H192" s="128"/>
     </row>
     <row r="193" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A193" s="133"/>
-      <c r="C193" s="134"/>
-      <c r="H193" s="135"/>
+      <c r="A193" s="126"/>
+      <c r="C193" s="127"/>
+      <c r="H193" s="128"/>
     </row>
     <row r="194" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A194" s="133"/>
-      <c r="C194" s="134"/>
-      <c r="H194" s="135"/>
+      <c r="A194" s="126"/>
+      <c r="C194" s="127"/>
+      <c r="H194" s="128"/>
     </row>
     <row r="195" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A195" s="133"/>
-      <c r="C195" s="134"/>
-      <c r="H195" s="135"/>
+      <c r="A195" s="126"/>
+      <c r="C195" s="127"/>
+      <c r="H195" s="128"/>
     </row>
     <row r="196" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A196" s="133"/>
-      <c r="C196" s="134"/>
-      <c r="H196" s="135"/>
+      <c r="A196" s="126"/>
+      <c r="C196" s="127"/>
+      <c r="H196" s="128"/>
     </row>
     <row r="197" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A197" s="133"/>
-      <c r="C197" s="134"/>
-      <c r="H197" s="135"/>
+      <c r="A197" s="126"/>
+      <c r="C197" s="127"/>
+      <c r="H197" s="128"/>
     </row>
     <row r="198" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A198" s="133"/>
-      <c r="C198" s="134"/>
-      <c r="H198" s="135"/>
+      <c r="A198" s="126"/>
+      <c r="C198" s="127"/>
+      <c r="H198" s="128"/>
     </row>
     <row r="199" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A199" s="133"/>
-      <c r="C199" s="134"/>
-      <c r="H199" s="135"/>
+      <c r="A199" s="126"/>
+      <c r="C199" s="127"/>
+      <c r="H199" s="128"/>
     </row>
     <row r="200" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A200" s="133"/>
-      <c r="C200" s="134"/>
-      <c r="H200" s="135"/>
+      <c r="A200" s="126"/>
+      <c r="C200" s="127"/>
+      <c r="H200" s="128"/>
     </row>
     <row r="201" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A201" s="133"/>
-      <c r="C201" s="134"/>
-      <c r="H201" s="135"/>
+      <c r="A201" s="126"/>
+      <c r="C201" s="127"/>
+      <c r="H201" s="128"/>
     </row>
     <row r="202" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A202" s="133"/>
-      <c r="C202" s="134"/>
-      <c r="H202" s="135"/>
+      <c r="A202" s="126"/>
+      <c r="C202" s="127"/>
+      <c r="H202" s="128"/>
     </row>
     <row r="203" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A203" s="133"/>
-      <c r="C203" s="134"/>
-      <c r="H203" s="135"/>
+      <c r="A203" s="126"/>
+      <c r="C203" s="127"/>
+      <c r="H203" s="128"/>
     </row>
     <row r="204" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A204" s="133"/>
-      <c r="C204" s="134"/>
-      <c r="H204" s="135"/>
+      <c r="A204" s="126"/>
+      <c r="C204" s="127"/>
+      <c r="H204" s="128"/>
     </row>
     <row r="205" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A205" s="133"/>
-      <c r="C205" s="134"/>
-      <c r="H205" s="135"/>
+      <c r="A205" s="126"/>
+      <c r="C205" s="127"/>
+      <c r="H205" s="128"/>
     </row>
     <row r="206" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A206" s="133"/>
-      <c r="C206" s="134"/>
-      <c r="H206" s="135"/>
+      <c r="A206" s="126"/>
+      <c r="C206" s="127"/>
+      <c r="H206" s="128"/>
     </row>
     <row r="207" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A207" s="133"/>
-      <c r="C207" s="134"/>
-      <c r="H207" s="135"/>
+      <c r="A207" s="126"/>
+      <c r="C207" s="127"/>
+      <c r="H207" s="128"/>
     </row>
     <row r="208" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A208" s="133"/>
-      <c r="C208" s="134"/>
-      <c r="H208" s="135"/>
+      <c r="A208" s="126"/>
+      <c r="C208" s="127"/>
+      <c r="H208" s="128"/>
     </row>
     <row r="209" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A209" s="133"/>
-      <c r="C209" s="134"/>
-      <c r="H209" s="135"/>
+      <c r="A209" s="126"/>
+      <c r="C209" s="127"/>
+      <c r="H209" s="128"/>
     </row>
     <row r="210" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A210" s="133"/>
-      <c r="C210" s="134"/>
-      <c r="H210" s="135"/>
+      <c r="A210" s="126"/>
+      <c r="C210" s="127"/>
+      <c r="H210" s="128"/>
     </row>
     <row r="211" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A211" s="133"/>
-      <c r="C211" s="134"/>
-      <c r="H211" s="135"/>
+      <c r="A211" s="126"/>
+      <c r="C211" s="127"/>
+      <c r="H211" s="128"/>
     </row>
     <row r="212" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A212" s="133"/>
-      <c r="C212" s="134"/>
-      <c r="H212" s="135"/>
+      <c r="A212" s="126"/>
+      <c r="C212" s="127"/>
+      <c r="H212" s="128"/>
     </row>
     <row r="213" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A213" s="133"/>
-      <c r="C213" s="134"/>
-      <c r="H213" s="135"/>
+      <c r="A213" s="126"/>
+      <c r="C213" s="127"/>
+      <c r="H213" s="128"/>
     </row>
     <row r="214" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A214" s="133"/>
-      <c r="C214" s="134"/>
-      <c r="H214" s="135"/>
+      <c r="A214" s="126"/>
+      <c r="C214" s="127"/>
+      <c r="H214" s="128"/>
     </row>
     <row r="215" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A215" s="133"/>
-      <c r="C215" s="134"/>
-      <c r="H215" s="135"/>
+      <c r="A215" s="126"/>
+      <c r="C215" s="127"/>
+      <c r="H215" s="128"/>
     </row>
     <row r="216" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A216" s="133"/>
-      <c r="C216" s="134"/>
-      <c r="H216" s="135"/>
+      <c r="A216" s="126"/>
+      <c r="C216" s="127"/>
+      <c r="H216" s="128"/>
     </row>
     <row r="217" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A217" s="133"/>
-      <c r="C217" s="134"/>
-      <c r="H217" s="135"/>
+      <c r="A217" s="126"/>
+      <c r="C217" s="127"/>
+      <c r="H217" s="128"/>
     </row>
     <row r="218" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A218" s="133"/>
-      <c r="C218" s="134"/>
-      <c r="H218" s="135"/>
+      <c r="A218" s="126"/>
+      <c r="C218" s="127"/>
+      <c r="H218" s="128"/>
     </row>
     <row r="219" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A219" s="133"/>
-      <c r="C219" s="134"/>
-      <c r="H219" s="135"/>
+      <c r="A219" s="126"/>
+      <c r="C219" s="127"/>
+      <c r="H219" s="128"/>
     </row>
     <row r="220" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A220" s="133"/>
-      <c r="C220" s="134"/>
-      <c r="H220" s="135"/>
+      <c r="A220" s="126"/>
+      <c r="C220" s="127"/>
+      <c r="H220" s="128"/>
     </row>
     <row r="221" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A221" s="133"/>
-      <c r="C221" s="134"/>
-      <c r="H221" s="135"/>
+      <c r="A221" s="126"/>
+      <c r="C221" s="127"/>
+      <c r="H221" s="128"/>
     </row>
     <row r="222" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A222" s="133"/>
-      <c r="C222" s="134"/>
-      <c r="H222" s="135"/>
+      <c r="A222" s="126"/>
+      <c r="C222" s="127"/>
+      <c r="H222" s="128"/>
     </row>
     <row r="223" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A223" s="133"/>
-      <c r="C223" s="134"/>
-      <c r="H223" s="135"/>
+      <c r="A223" s="126"/>
+      <c r="C223" s="127"/>
+      <c r="H223" s="128"/>
     </row>
     <row r="224" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A224" s="133"/>
-      <c r="C224" s="134"/>
-      <c r="H224" s="135"/>
+      <c r="A224" s="126"/>
+      <c r="C224" s="127"/>
+      <c r="H224" s="128"/>
     </row>
     <row r="225" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A225" s="133"/>
-      <c r="C225" s="134"/>
-      <c r="H225" s="135"/>
+      <c r="A225" s="126"/>
+      <c r="C225" s="127"/>
+      <c r="H225" s="128"/>
     </row>
     <row r="226" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A226" s="133"/>
-      <c r="C226" s="134"/>
-      <c r="H226" s="135"/>
+      <c r="A226" s="126"/>
+      <c r="C226" s="127"/>
+      <c r="H226" s="128"/>
     </row>
     <row r="227" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A227" s="133"/>
-      <c r="C227" s="134"/>
-      <c r="H227" s="135"/>
+      <c r="A227" s="126"/>
+      <c r="C227" s="127"/>
+      <c r="H227" s="128"/>
     </row>
     <row r="228" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A228" s="133"/>
-      <c r="C228" s="134"/>
-      <c r="H228" s="135"/>
+      <c r="A228" s="126"/>
+      <c r="C228" s="127"/>
+      <c r="H228" s="128"/>
     </row>
     <row r="229" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A229" s="133"/>
-      <c r="C229" s="134"/>
-      <c r="H229" s="135"/>
+      <c r="A229" s="126"/>
+      <c r="C229" s="127"/>
+      <c r="H229" s="128"/>
     </row>
     <row r="230" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A230" s="133"/>
-      <c r="C230" s="134"/>
-      <c r="H230" s="135"/>
+      <c r="A230" s="126"/>
+      <c r="C230" s="127"/>
+      <c r="H230" s="128"/>
     </row>
     <row r="231" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A231" s="133"/>
-      <c r="C231" s="134"/>
-      <c r="H231" s="135"/>
+      <c r="A231" s="126"/>
+      <c r="C231" s="127"/>
+      <c r="H231" s="128"/>
     </row>
     <row r="232" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A232" s="133"/>
-      <c r="C232" s="134"/>
-      <c r="H232" s="135"/>
+      <c r="A232" s="126"/>
+      <c r="C232" s="127"/>
+      <c r="H232" s="128"/>
     </row>
     <row r="233" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A233" s="133"/>
-      <c r="C233" s="134"/>
-      <c r="H233" s="135"/>
+      <c r="A233" s="126"/>
+      <c r="C233" s="127"/>
+      <c r="H233" s="128"/>
     </row>
     <row r="234" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A234" s="133"/>
-      <c r="C234" s="134"/>
-      <c r="H234" s="135"/>
+      <c r="A234" s="126"/>
+      <c r="C234" s="127"/>
+      <c r="H234" s="128"/>
     </row>
     <row r="235" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A235" s="133"/>
-      <c r="C235" s="134"/>
-      <c r="H235" s="135"/>
+      <c r="A235" s="126"/>
+      <c r="C235" s="127"/>
+      <c r="H235" s="128"/>
     </row>
     <row r="236" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A236" s="133"/>
-      <c r="C236" s="134"/>
-      <c r="H236" s="135"/>
+      <c r="A236" s="126"/>
+      <c r="C236" s="127"/>
+      <c r="H236" s="128"/>
     </row>
     <row r="237" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A237" s="133"/>
-      <c r="C237" s="134"/>
-      <c r="H237" s="135"/>
+      <c r="A237" s="126"/>
+      <c r="C237" s="127"/>
+      <c r="H237" s="128"/>
     </row>
     <row r="238" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A238" s="133"/>
-      <c r="C238" s="134"/>
-      <c r="H238" s="135"/>
+      <c r="A238" s="126"/>
+      <c r="C238" s="127"/>
+      <c r="H238" s="128"/>
     </row>
     <row r="239" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A239" s="133"/>
-      <c r="C239" s="134"/>
-      <c r="H239" s="135"/>
+      <c r="A239" s="126"/>
+      <c r="C239" s="127"/>
+      <c r="H239" s="128"/>
     </row>
     <row r="240" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A240" s="133"/>
-      <c r="C240" s="134"/>
-      <c r="H240" s="135"/>
+      <c r="A240" s="126"/>
+      <c r="C240" s="127"/>
+      <c r="H240" s="128"/>
     </row>
     <row r="241" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A241" s="133"/>
-      <c r="C241" s="134"/>
-      <c r="H241" s="135"/>
+      <c r="A241" s="126"/>
+      <c r="C241" s="127"/>
+      <c r="H241" s="128"/>
     </row>
     <row r="242" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A242" s="133"/>
-      <c r="C242" s="134"/>
-      <c r="H242" s="135"/>
+      <c r="A242" s="126"/>
+      <c r="C242" s="127"/>
+      <c r="H242" s="128"/>
     </row>
     <row r="243" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A243" s="133"/>
-      <c r="C243" s="134"/>
-      <c r="H243" s="135"/>
+      <c r="A243" s="126"/>
+      <c r="C243" s="127"/>
+      <c r="H243" s="128"/>
     </row>
     <row r="244" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A244" s="133"/>
-      <c r="C244" s="134"/>
-      <c r="H244" s="135"/>
+      <c r="A244" s="126"/>
+      <c r="C244" s="127"/>
+      <c r="H244" s="128"/>
     </row>
     <row r="245" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A245" s="133"/>
-      <c r="C245" s="134"/>
-      <c r="H245" s="135"/>
+      <c r="A245" s="126"/>
+      <c r="C245" s="127"/>
+      <c r="H245" s="128"/>
     </row>
     <row r="246" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A246" s="133"/>
-      <c r="C246" s="134"/>
-      <c r="H246" s="135"/>
+      <c r="A246" s="126"/>
+      <c r="C246" s="127"/>
+      <c r="H246" s="128"/>
     </row>
     <row r="247" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A247" s="133"/>
-      <c r="C247" s="134"/>
-      <c r="H247" s="135"/>
+      <c r="A247" s="126"/>
+      <c r="C247" s="127"/>
+      <c r="H247" s="128"/>
     </row>
     <row r="248" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A248" s="133"/>
-      <c r="C248" s="134"/>
-      <c r="H248" s="135"/>
+      <c r="A248" s="126"/>
+      <c r="C248" s="127"/>
+      <c r="H248" s="128"/>
     </row>
     <row r="249" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A249" s="133"/>
-      <c r="C249" s="134"/>
-      <c r="H249" s="135"/>
+      <c r="A249" s="126"/>
+      <c r="C249" s="127"/>
+      <c r="H249" s="128"/>
     </row>
     <row r="250" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A250" s="133"/>
-      <c r="C250" s="134"/>
-      <c r="H250" s="135"/>
+      <c r="A250" s="126"/>
+      <c r="C250" s="127"/>
+      <c r="H250" s="128"/>
     </row>
     <row r="251" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A251" s="133"/>
-      <c r="C251" s="134"/>
-      <c r="H251" s="135"/>
+      <c r="A251" s="126"/>
+      <c r="C251" s="127"/>
+      <c r="H251" s="128"/>
     </row>
     <row r="252" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A252" s="133"/>
-      <c r="C252" s="134"/>
-      <c r="H252" s="135"/>
+      <c r="A252" s="126"/>
+      <c r="C252" s="127"/>
+      <c r="H252" s="128"/>
     </row>
     <row r="253" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A253" s="133"/>
-      <c r="C253" s="134"/>
-      <c r="H253" s="135"/>
+      <c r="A253" s="126"/>
+      <c r="C253" s="127"/>
+      <c r="H253" s="128"/>
     </row>
     <row r="254" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A254" s="133"/>
-      <c r="C254" s="134"/>
-      <c r="H254" s="135"/>
+      <c r="A254" s="126"/>
+      <c r="C254" s="127"/>
+      <c r="H254" s="128"/>
     </row>
     <row r="255" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A255" s="133"/>
-      <c r="C255" s="134"/>
-      <c r="H255" s="135"/>
+      <c r="A255" s="126"/>
+      <c r="C255" s="127"/>
+      <c r="H255" s="128"/>
     </row>
     <row r="256" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A256" s="133"/>
-      <c r="C256" s="134"/>
-      <c r="H256" s="135"/>
+      <c r="A256" s="126"/>
+      <c r="C256" s="127"/>
+      <c r="H256" s="128"/>
     </row>
     <row r="257" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A257" s="133"/>
-      <c r="C257" s="134"/>
-      <c r="H257" s="135"/>
+      <c r="A257" s="126"/>
+      <c r="C257" s="127"/>
+      <c r="H257" s="128"/>
     </row>
     <row r="258" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A258" s="133"/>
-      <c r="C258" s="134"/>
-      <c r="H258" s="135"/>
+      <c r="A258" s="126"/>
+      <c r="C258" s="127"/>
+      <c r="H258" s="128"/>
     </row>
   </sheetData>
   <autoFilter ref="A14:XFD62" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="22">
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:P5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="N12:P12"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="A7:D7"/>
@@ -7316,6 +7340,19 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="E9:P9"/>
     <mergeCell ref="E10:P10"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
